--- a/functions/product.xlsx
+++ b/functions/product.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\crm-ecommerce (1)\functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71ECE8F6-2880-402D-98ED-C790260CEBD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAF0AFA9-F4D1-49C1-8B07-67267DFC7E79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="youcef" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="145">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -417,6 +417,57 @@
   </si>
   <si>
     <t>sam-1085</t>
+  </si>
+  <si>
+    <t>NOIR MATE</t>
+  </si>
+  <si>
+    <t>BLANC</t>
+  </si>
+  <si>
+    <t>TABAC</t>
+  </si>
+  <si>
+    <t>BLEU JEAN</t>
+  </si>
+  <si>
+    <t>BRONZE</t>
+  </si>
+  <si>
+    <t>DORE</t>
+  </si>
+  <si>
+    <t>ARGENTE</t>
+  </si>
+  <si>
+    <t>CHAMPAGNE</t>
+  </si>
+  <si>
+    <t>JAUNE MOUTARD</t>
+  </si>
+  <si>
+    <t>VERT DEAU</t>
+  </si>
+  <si>
+    <t>ABRICOT</t>
+  </si>
+  <si>
+    <t>VERT MILITAIRE</t>
+  </si>
+  <si>
+    <t>ROSE</t>
+  </si>
+  <si>
+    <t>ORANGE</t>
+  </si>
+  <si>
+    <t>NOIR BRILLANT</t>
+  </si>
+  <si>
+    <t>BEIGE</t>
+  </si>
+  <si>
+    <t>Mule 13028</t>
   </si>
 </sst>
 </file>
@@ -424,9 +475,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="#,##0.00\ [$€-1]"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ [$€-1]"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -505,8 +556,20 @@
       <name val="SimSun"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="SimSun"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="SimSun"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -523,6 +586,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFD9D2E9"/>
         <bgColor rgb="FFD9D2E9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -629,7 +698,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -660,7 +729,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -750,16 +819,13 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -771,10 +837,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -786,13 +849,16 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1044,7 +1110,7 @@
   <dimension ref="A1:V944"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="E337" sqref="E337"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1099,10 +1165,10 @@
       <c r="V1" s="4"/>
     </row>
     <row r="2" spans="1:22" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="46">
+      <c r="B2" s="45">
         <v>4400</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -1141,8 +1207,8 @@
       <c r="V2" s="9"/>
     </row>
     <row r="3" spans="1:22" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="44"/>
-      <c r="B3" s="44"/>
+      <c r="A3" s="43"/>
+      <c r="B3" s="43"/>
       <c r="C3" s="6" t="s">
         <v>6</v>
       </c>
@@ -1179,8 +1245,8 @@
       <c r="V3" s="9"/>
     </row>
     <row r="4" spans="1:22" ht="66" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="45"/>
-      <c r="B4" s="45"/>
+      <c r="A4" s="44"/>
+      <c r="B4" s="44"/>
       <c r="C4" s="6" t="s">
         <v>7</v>
       </c>
@@ -1217,10 +1283,10 @@
       <c r="V4" s="9"/>
     </row>
     <row r="5" spans="1:22" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="48">
+      <c r="B5" s="42">
         <v>4400</v>
       </c>
       <c r="C5" s="12" t="s">
@@ -1259,8 +1325,8 @@
       <c r="V5" s="9"/>
     </row>
     <row r="6" spans="1:22" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="44"/>
-      <c r="B6" s="44"/>
+      <c r="A6" s="43"/>
+      <c r="B6" s="43"/>
       <c r="C6" s="12" t="s">
         <v>10</v>
       </c>
@@ -1297,8 +1363,8 @@
       <c r="V6" s="9"/>
     </row>
     <row r="7" spans="1:22" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="44"/>
-      <c r="B7" s="44"/>
+      <c r="A7" s="43"/>
+      <c r="B7" s="43"/>
       <c r="C7" s="12" t="s">
         <v>11</v>
       </c>
@@ -1335,8 +1401,8 @@
       <c r="V7" s="9"/>
     </row>
     <row r="8" spans="1:22" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="45"/>
-      <c r="B8" s="45"/>
+      <c r="A8" s="44"/>
+      <c r="B8" s="44"/>
       <c r="C8" s="12" t="s">
         <v>12</v>
       </c>
@@ -1373,10 +1439,10 @@
       <c r="V8" s="9"/>
     </row>
     <row r="9" spans="1:22" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="46" t="s">
+      <c r="A9" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="46">
+      <c r="B9" s="45">
         <v>4400</v>
       </c>
       <c r="C9" s="6" t="s">
@@ -1415,8 +1481,8 @@
       <c r="V9" s="9"/>
     </row>
     <row r="10" spans="1:22" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="44"/>
-      <c r="B10" s="44"/>
+      <c r="A10" s="43"/>
+      <c r="B10" s="43"/>
       <c r="C10" s="6" t="s">
         <v>6</v>
       </c>
@@ -1453,8 +1519,8 @@
       <c r="V10" s="9"/>
     </row>
     <row r="11" spans="1:22" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="45"/>
-      <c r="B11" s="45"/>
+      <c r="A11" s="44"/>
+      <c r="B11" s="44"/>
       <c r="C11" s="6" t="s">
         <v>7</v>
       </c>
@@ -1491,10 +1557,10 @@
       <c r="V11" s="9"/>
     </row>
     <row r="12" spans="1:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="47" t="s">
+      <c r="A12" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="47">
+      <c r="B12" s="52">
         <v>4500</v>
       </c>
       <c r="C12" s="12" t="s">
@@ -1533,8 +1599,8 @@
       <c r="V12" s="9"/>
     </row>
     <row r="13" spans="1:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="44"/>
-      <c r="B13" s="44"/>
+      <c r="A13" s="43"/>
+      <c r="B13" s="43"/>
       <c r="C13" s="12" t="s">
         <v>15</v>
       </c>
@@ -1571,8 +1637,8 @@
       <c r="V13" s="9"/>
     </row>
     <row r="14" spans="1:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="44"/>
-      <c r="B14" s="44"/>
+      <c r="A14" s="43"/>
+      <c r="B14" s="43"/>
       <c r="C14" s="12" t="s">
         <v>16</v>
       </c>
@@ -1609,8 +1675,8 @@
       <c r="V14" s="9"/>
     </row>
     <row r="15" spans="1:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="45"/>
-      <c r="B15" s="45"/>
+      <c r="A15" s="44"/>
+      <c r="B15" s="44"/>
       <c r="C15" s="12" t="s">
         <v>10</v>
       </c>
@@ -1647,10 +1713,10 @@
       <c r="V15" s="9"/>
     </row>
     <row r="16" spans="1:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="46" t="s">
+      <c r="A16" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="46">
+      <c r="B16" s="45">
         <v>4500</v>
       </c>
       <c r="C16" s="6" t="s">
@@ -1689,8 +1755,8 @@
       <c r="V16" s="9"/>
     </row>
     <row r="17" spans="1:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="44"/>
-      <c r="B17" s="44"/>
+      <c r="A17" s="43"/>
+      <c r="B17" s="43"/>
       <c r="C17" s="6" t="s">
         <v>18</v>
       </c>
@@ -1727,8 +1793,8 @@
       <c r="V17" s="9"/>
     </row>
     <row r="18" spans="1:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="44"/>
-      <c r="B18" s="44"/>
+      <c r="A18" s="43"/>
+      <c r="B18" s="43"/>
       <c r="C18" s="6" t="s">
         <v>19</v>
       </c>
@@ -1765,8 +1831,8 @@
       <c r="V18" s="9"/>
     </row>
     <row r="19" spans="1:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="45"/>
-      <c r="B19" s="45"/>
+      <c r="A19" s="44"/>
+      <c r="B19" s="44"/>
       <c r="C19" s="6" t="s">
         <v>10</v>
       </c>
@@ -1803,10 +1869,10 @@
       <c r="V19" s="9"/>
     </row>
     <row r="20" spans="1:22" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="48" t="s">
+      <c r="A20" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="48">
+      <c r="B20" s="42">
         <v>4500</v>
       </c>
       <c r="C20" s="12" t="s">
@@ -1845,8 +1911,8 @@
       <c r="V20" s="9"/>
     </row>
     <row r="21" spans="1:22" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="44"/>
-      <c r="B21" s="44"/>
+      <c r="A21" s="43"/>
+      <c r="B21" s="43"/>
       <c r="C21" s="12" t="s">
         <v>12</v>
       </c>
@@ -1883,8 +1949,8 @@
       <c r="V21" s="9"/>
     </row>
     <row r="22" spans="1:22" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="44"/>
-      <c r="B22" s="44"/>
+      <c r="A22" s="43"/>
+      <c r="B22" s="43"/>
       <c r="C22" s="12" t="s">
         <v>10</v>
       </c>
@@ -1921,8 +1987,8 @@
       <c r="V22" s="9"/>
     </row>
     <row r="23" spans="1:22" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="45"/>
-      <c r="B23" s="45"/>
+      <c r="A23" s="44"/>
+      <c r="B23" s="44"/>
       <c r="C23" s="12" t="s">
         <v>21</v>
       </c>
@@ -1959,10 +2025,10 @@
       <c r="V23" s="9"/>
     </row>
     <row r="24" spans="1:22" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="46" t="s">
+      <c r="A24" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="46">
+      <c r="B24" s="45">
         <v>4500</v>
       </c>
       <c r="C24" s="6" t="s">
@@ -2001,8 +2067,8 @@
       <c r="V24" s="9"/>
     </row>
     <row r="25" spans="1:22" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="44"/>
-      <c r="B25" s="44"/>
+      <c r="A25" s="43"/>
+      <c r="B25" s="43"/>
       <c r="C25" s="6" t="s">
         <v>10</v>
       </c>
@@ -2039,8 +2105,8 @@
       <c r="V25" s="9"/>
     </row>
     <row r="26" spans="1:22" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="45"/>
-      <c r="B26" s="45"/>
+      <c r="A26" s="44"/>
+      <c r="B26" s="44"/>
       <c r="C26" s="6" t="s">
         <v>11</v>
       </c>
@@ -2077,10 +2143,10 @@
       <c r="V26" s="9"/>
     </row>
     <row r="27" spans="1:22" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="48" t="s">
+      <c r="A27" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="48">
+      <c r="B27" s="42">
         <v>4500</v>
       </c>
       <c r="C27" s="12" t="s">
@@ -2121,8 +2187,8 @@
       <c r="V27" s="9"/>
     </row>
     <row r="28" spans="1:22" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="44"/>
-      <c r="B28" s="44"/>
+      <c r="A28" s="43"/>
+      <c r="B28" s="43"/>
       <c r="C28" s="12" t="s">
         <v>11</v>
       </c>
@@ -2159,8 +2225,8 @@
       <c r="V28" s="9"/>
     </row>
     <row r="29" spans="1:22" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="45"/>
-      <c r="B29" s="45"/>
+      <c r="A29" s="44"/>
+      <c r="B29" s="44"/>
       <c r="C29" s="12" t="s">
         <v>10</v>
       </c>
@@ -2197,10 +2263,10 @@
       <c r="V29" s="9"/>
     </row>
     <row r="30" spans="1:22" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="46" t="s">
+      <c r="A30" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="B30" s="46">
+      <c r="B30" s="45">
         <v>4500</v>
       </c>
       <c r="C30" s="6" t="s">
@@ -2239,8 +2305,8 @@
       <c r="V30" s="9"/>
     </row>
     <row r="31" spans="1:22" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="44"/>
-      <c r="B31" s="44"/>
+      <c r="A31" s="43"/>
+      <c r="B31" s="43"/>
       <c r="C31" s="6" t="s">
         <v>11</v>
       </c>
@@ -2277,8 +2343,8 @@
       <c r="V31" s="9"/>
     </row>
     <row r="32" spans="1:22" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="45"/>
-      <c r="B32" s="45"/>
+      <c r="A32" s="44"/>
+      <c r="B32" s="44"/>
       <c r="C32" s="6" t="s">
         <v>10</v>
       </c>
@@ -2315,10 +2381,10 @@
       <c r="V32" s="9"/>
     </row>
     <row r="33" spans="1:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="48" t="s">
+      <c r="A33" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="B33" s="48">
+      <c r="B33" s="42">
         <v>3900</v>
       </c>
       <c r="C33" s="12" t="s">
@@ -2357,8 +2423,8 @@
       <c r="V33" s="9"/>
     </row>
     <row r="34" spans="1:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="44"/>
-      <c r="B34" s="44"/>
+      <c r="A34" s="43"/>
+      <c r="B34" s="43"/>
       <c r="C34" s="12" t="s">
         <v>11</v>
       </c>
@@ -2395,8 +2461,8 @@
       <c r="V34" s="9"/>
     </row>
     <row r="35" spans="1:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="44"/>
-      <c r="B35" s="44"/>
+      <c r="A35" s="43"/>
+      <c r="B35" s="43"/>
       <c r="C35" s="12" t="s">
         <v>10</v>
       </c>
@@ -2433,8 +2499,8 @@
       <c r="V35" s="9"/>
     </row>
     <row r="36" spans="1:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="45"/>
-      <c r="B36" s="45"/>
+      <c r="A36" s="44"/>
+      <c r="B36" s="44"/>
       <c r="C36" s="12" t="s">
         <v>12</v>
       </c>
@@ -2471,10 +2537,10 @@
       <c r="V36" s="9"/>
     </row>
     <row r="37" spans="1:22" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="46" t="s">
+      <c r="A37" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="B37" s="46">
+      <c r="B37" s="45">
         <v>3500</v>
       </c>
       <c r="C37" s="6" t="s">
@@ -2513,8 +2579,8 @@
       <c r="V37" s="9"/>
     </row>
     <row r="38" spans="1:22" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="45"/>
-      <c r="B38" s="45"/>
+      <c r="A38" s="44"/>
+      <c r="B38" s="44"/>
       <c r="C38" s="6" t="s">
         <v>11</v>
       </c>
@@ -2551,10 +2617,10 @@
       <c r="V38" s="9"/>
     </row>
     <row r="39" spans="1:22" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="48" t="s">
+      <c r="A39" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="B39" s="48">
+      <c r="B39" s="42">
         <v>3500</v>
       </c>
       <c r="C39" s="12" t="s">
@@ -2593,8 +2659,8 @@
       <c r="V39" s="9"/>
     </row>
     <row r="40" spans="1:22" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="45"/>
-      <c r="B40" s="45"/>
+      <c r="A40" s="44"/>
+      <c r="B40" s="44"/>
       <c r="C40" s="15" t="s">
         <v>11</v>
       </c>
@@ -2619,10 +2685,10 @@
       <c r="V40" s="9"/>
     </row>
     <row r="41" spans="1:22" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="46" t="s">
+      <c r="A41" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="B41" s="46">
+      <c r="B41" s="45">
         <v>4700</v>
       </c>
       <c r="C41" s="6" t="s">
@@ -2661,8 +2727,8 @@
       <c r="V41" s="9"/>
     </row>
     <row r="42" spans="1:22" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="44"/>
-      <c r="B42" s="44"/>
+      <c r="A42" s="43"/>
+      <c r="B42" s="43"/>
       <c r="C42" s="6" t="s">
         <v>29</v>
       </c>
@@ -2699,8 +2765,8 @@
       <c r="V42" s="9"/>
     </row>
     <row r="43" spans="1:22" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="45"/>
-      <c r="B43" s="45"/>
+      <c r="A43" s="44"/>
+      <c r="B43" s="44"/>
       <c r="C43" s="17" t="s">
         <v>11</v>
       </c>
@@ -2725,10 +2791,10 @@
       <c r="V43" s="9"/>
     </row>
     <row r="44" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="48" t="s">
+      <c r="A44" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="B44" s="48">
+      <c r="B44" s="42">
         <v>4700</v>
       </c>
       <c r="C44" s="15" t="s">
@@ -2755,8 +2821,8 @@
       <c r="V44" s="9"/>
     </row>
     <row r="45" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="44"/>
-      <c r="B45" s="44"/>
+      <c r="A45" s="43"/>
+      <c r="B45" s="43"/>
       <c r="C45" s="12" t="s">
         <v>9</v>
       </c>
@@ -2793,8 +2859,8 @@
       <c r="V45" s="9"/>
     </row>
     <row r="46" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="44"/>
-      <c r="B46" s="44"/>
+      <c r="A46" s="43"/>
+      <c r="B46" s="43"/>
       <c r="C46" s="12" t="s">
         <v>19</v>
       </c>
@@ -2831,8 +2897,8 @@
       <c r="V46" s="9"/>
     </row>
     <row r="47" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="45"/>
-      <c r="B47" s="45"/>
+      <c r="A47" s="44"/>
+      <c r="B47" s="44"/>
       <c r="C47" s="15" t="s">
         <v>10</v>
       </c>
@@ -2857,10 +2923,10 @@
       <c r="V47" s="9"/>
     </row>
     <row r="48" spans="1:22" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="46" t="s">
+      <c r="A48" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="B48" s="46">
+      <c r="B48" s="45">
         <v>4700</v>
       </c>
       <c r="C48" s="17" t="s">
@@ -2887,8 +2953,8 @@
       <c r="V48" s="9"/>
     </row>
     <row r="49" spans="1:22" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="44"/>
-      <c r="B49" s="44"/>
+      <c r="A49" s="43"/>
+      <c r="B49" s="43"/>
       <c r="C49" s="17" t="s">
         <v>33</v>
       </c>
@@ -2913,8 +2979,8 @@
       <c r="V49" s="9"/>
     </row>
     <row r="50" spans="1:22" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="44"/>
-      <c r="B50" s="44"/>
+      <c r="A50" s="43"/>
+      <c r="B50" s="43"/>
       <c r="C50" s="6" t="s">
         <v>9</v>
       </c>
@@ -2951,8 +3017,8 @@
       <c r="V50" s="9"/>
     </row>
     <row r="51" spans="1:22" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="44"/>
-      <c r="B51" s="44"/>
+      <c r="A51" s="43"/>
+      <c r="B51" s="43"/>
       <c r="C51" s="6" t="s">
         <v>19</v>
       </c>
@@ -2989,8 +3055,8 @@
       <c r="V51" s="9"/>
     </row>
     <row r="52" spans="1:22" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="45"/>
-      <c r="B52" s="45"/>
+      <c r="A52" s="44"/>
+      <c r="B52" s="44"/>
       <c r="C52" s="6" t="s">
         <v>10</v>
       </c>
@@ -3027,10 +3093,10 @@
       <c r="V52" s="9"/>
     </row>
     <row r="53" spans="1:22" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="48" t="s">
+      <c r="A53" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="B53" s="48">
+      <c r="B53" s="42">
         <v>4700</v>
       </c>
       <c r="C53" s="15" t="s">
@@ -3057,8 +3123,8 @@
       <c r="V53" s="9"/>
     </row>
     <row r="54" spans="1:22" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="44"/>
-      <c r="B54" s="44"/>
+      <c r="A54" s="43"/>
+      <c r="B54" s="43"/>
       <c r="C54" s="15" t="s">
         <v>33</v>
       </c>
@@ -3083,8 +3149,8 @@
       <c r="V54" s="9"/>
     </row>
     <row r="55" spans="1:22" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="44"/>
-      <c r="B55" s="44"/>
+      <c r="A55" s="43"/>
+      <c r="B55" s="43"/>
       <c r="C55" s="15" t="s">
         <v>9</v>
       </c>
@@ -3109,8 +3175,8 @@
       <c r="V55" s="9"/>
     </row>
     <row r="56" spans="1:22" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="44"/>
-      <c r="B56" s="44"/>
+      <c r="A56" s="43"/>
+      <c r="B56" s="43"/>
       <c r="C56" s="15" t="s">
         <v>19</v>
       </c>
@@ -3135,8 +3201,8 @@
       <c r="V56" s="9"/>
     </row>
     <row r="57" spans="1:22" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="45"/>
-      <c r="B57" s="45"/>
+      <c r="A57" s="44"/>
+      <c r="B57" s="44"/>
       <c r="C57" s="15" t="s">
         <v>10</v>
       </c>
@@ -3161,10 +3227,10 @@
       <c r="V57" s="9"/>
     </row>
     <row r="58" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="46" t="s">
+      <c r="A58" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="B58" s="46">
+      <c r="B58" s="45">
         <v>4900</v>
       </c>
       <c r="C58" s="6" t="s">
@@ -3203,8 +3269,8 @@
       <c r="V58" s="9"/>
     </row>
     <row r="59" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="44"/>
-      <c r="B59" s="44"/>
+      <c r="A59" s="43"/>
+      <c r="B59" s="43"/>
       <c r="C59" s="6" t="s">
         <v>11</v>
       </c>
@@ -3241,8 +3307,8 @@
       <c r="V59" s="9"/>
     </row>
     <row r="60" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="44"/>
-      <c r="B60" s="44"/>
+      <c r="A60" s="43"/>
+      <c r="B60" s="43"/>
       <c r="C60" s="17" t="s">
         <v>37</v>
       </c>
@@ -3267,8 +3333,8 @@
       <c r="V60" s="9"/>
     </row>
     <row r="61" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="44"/>
-      <c r="B61" s="44"/>
+      <c r="A61" s="43"/>
+      <c r="B61" s="43"/>
       <c r="C61" s="6" t="s">
         <v>38</v>
       </c>
@@ -3305,8 +3371,8 @@
       <c r="V61" s="9"/>
     </row>
     <row r="62" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="45"/>
-      <c r="B62" s="45"/>
+      <c r="A62" s="44"/>
+      <c r="B62" s="44"/>
       <c r="C62" s="17" t="s">
         <v>9</v>
       </c>
@@ -3331,10 +3397,10 @@
       <c r="V62" s="9"/>
     </row>
     <row r="63" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="48" t="s">
+      <c r="A63" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="B63" s="48">
+      <c r="B63" s="42">
         <v>5300</v>
       </c>
       <c r="C63" s="12" t="s">
@@ -3373,8 +3439,8 @@
       <c r="V63" s="9"/>
     </row>
     <row r="64" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="44"/>
-      <c r="B64" s="44"/>
+      <c r="A64" s="43"/>
+      <c r="B64" s="43"/>
       <c r="C64" s="15" t="s">
         <v>11</v>
       </c>
@@ -3399,8 +3465,8 @@
       <c r="V64" s="9"/>
     </row>
     <row r="65" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="44"/>
-      <c r="B65" s="44"/>
+      <c r="A65" s="43"/>
+      <c r="B65" s="43"/>
       <c r="C65" s="12" t="s">
         <v>38</v>
       </c>
@@ -3437,8 +3503,8 @@
       <c r="V65" s="9"/>
     </row>
     <row r="66" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="45"/>
-      <c r="B66" s="45"/>
+      <c r="A66" s="44"/>
+      <c r="B66" s="44"/>
       <c r="C66" s="15" t="s">
         <v>37</v>
       </c>
@@ -3463,10 +3529,10 @@
       <c r="V66" s="9"/>
     </row>
     <row r="67" spans="1:22" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="46" t="s">
+      <c r="A67" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="B67" s="46">
+      <c r="B67" s="45">
         <v>5300</v>
       </c>
       <c r="C67" s="6" t="s">
@@ -3505,8 +3571,8 @@
       <c r="V67" s="9"/>
     </row>
     <row r="68" spans="1:22" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="44"/>
-      <c r="B68" s="44"/>
+      <c r="A68" s="43"/>
+      <c r="B68" s="43"/>
       <c r="C68" s="6" t="s">
         <v>38</v>
       </c>
@@ -3543,8 +3609,8 @@
       <c r="V68" s="9"/>
     </row>
     <row r="69" spans="1:22" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="44"/>
-      <c r="B69" s="44"/>
+      <c r="A69" s="43"/>
+      <c r="B69" s="43"/>
       <c r="C69" s="17" t="s">
         <v>37</v>
       </c>
@@ -3569,8 +3635,8 @@
       <c r="V69" s="9"/>
     </row>
     <row r="70" spans="1:22" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="45"/>
-      <c r="B70" s="45"/>
+      <c r="A70" s="44"/>
+      <c r="B70" s="44"/>
       <c r="C70" s="17" t="s">
         <v>11</v>
       </c>
@@ -3595,10 +3661,10 @@
       <c r="V70" s="9"/>
     </row>
     <row r="71" spans="1:22" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="48" t="s">
+      <c r="A71" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="B71" s="48">
+      <c r="B71" s="42">
         <v>4900</v>
       </c>
       <c r="C71" s="15" t="s">
@@ -3625,8 +3691,8 @@
       <c r="V71" s="9"/>
     </row>
     <row r="72" spans="1:22" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="44"/>
-      <c r="B72" s="44"/>
+      <c r="A72" s="43"/>
+      <c r="B72" s="43"/>
       <c r="C72" s="15" t="s">
         <v>37</v>
       </c>
@@ -3651,8 +3717,8 @@
       <c r="V72" s="9"/>
     </row>
     <row r="73" spans="1:22" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="44"/>
-      <c r="B73" s="44"/>
+      <c r="A73" s="43"/>
+      <c r="B73" s="43"/>
       <c r="C73" s="12" t="s">
         <v>36</v>
       </c>
@@ -3689,8 +3755,8 @@
       <c r="V73" s="9"/>
     </row>
     <row r="74" spans="1:22" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="45"/>
-      <c r="B74" s="45"/>
+      <c r="A74" s="44"/>
+      <c r="B74" s="44"/>
       <c r="C74" s="12" t="s">
         <v>38</v>
       </c>
@@ -3727,10 +3793,10 @@
       <c r="V74" s="9"/>
     </row>
     <row r="75" spans="1:22" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="46" t="s">
+      <c r="A75" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="B75" s="46">
+      <c r="B75" s="45">
         <v>5500</v>
       </c>
       <c r="C75" s="17" t="s">
@@ -3757,8 +3823,8 @@
       <c r="V75" s="9"/>
     </row>
     <row r="76" spans="1:22" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="44"/>
-      <c r="B76" s="44"/>
+      <c r="A76" s="43"/>
+      <c r="B76" s="43"/>
       <c r="C76" s="17" t="s">
         <v>37</v>
       </c>
@@ -3783,8 +3849,8 @@
       <c r="V76" s="9"/>
     </row>
     <row r="77" spans="1:22" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="44"/>
-      <c r="B77" s="44"/>
+      <c r="A77" s="43"/>
+      <c r="B77" s="43"/>
       <c r="C77" s="17" t="s">
         <v>36</v>
       </c>
@@ -3809,8 +3875,8 @@
       <c r="V77" s="9"/>
     </row>
     <row r="78" spans="1:22" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="45"/>
-      <c r="B78" s="45"/>
+      <c r="A78" s="44"/>
+      <c r="B78" s="44"/>
       <c r="C78" s="17" t="s">
         <v>38</v>
       </c>
@@ -3835,8 +3901,8 @@
       <c r="V78" s="9"/>
     </row>
     <row r="79" spans="1:22" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="49"/>
-      <c r="B79" s="50"/>
+      <c r="A79" s="47"/>
+      <c r="B79" s="48"/>
       <c r="C79" s="18"/>
       <c r="D79" s="19"/>
       <c r="E79" s="19"/>
@@ -3859,10 +3925,10 @@
       <c r="V79" s="20"/>
     </row>
     <row r="80" spans="1:22" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="48" t="s">
+      <c r="A80" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="B80" s="48">
+      <c r="B80" s="42">
         <v>4400</v>
       </c>
       <c r="C80" s="21" t="s">
@@ -3888,8 +3954,8 @@
       </c>
     </row>
     <row r="81" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="44"/>
-      <c r="B81" s="44"/>
+      <c r="A81" s="43"/>
+      <c r="B81" s="43"/>
       <c r="C81" s="21" t="s">
         <v>10</v>
       </c>
@@ -3913,8 +3979,8 @@
       </c>
     </row>
     <row r="82" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="44"/>
-      <c r="B82" s="44"/>
+      <c r="A82" s="43"/>
+      <c r="B82" s="43"/>
       <c r="C82" s="21" t="s">
         <v>44</v>
       </c>
@@ -3938,8 +4004,8 @@
       </c>
     </row>
     <row r="83" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="44"/>
-      <c r="B83" s="44"/>
+      <c r="A83" s="43"/>
+      <c r="B83" s="43"/>
       <c r="C83" s="22" t="s">
         <v>45</v>
       </c>
@@ -3951,8 +4017,8 @@
       <c r="I83" s="13"/>
     </row>
     <row r="84" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="45"/>
-      <c r="B84" s="45"/>
+      <c r="A84" s="44"/>
+      <c r="B84" s="44"/>
       <c r="C84" s="22" t="s">
         <v>46</v>
       </c>
@@ -3964,10 +4030,10 @@
       <c r="I84" s="13"/>
     </row>
     <row r="85" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="46" t="s">
+      <c r="A85" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="B85" s="46">
+      <c r="B85" s="45">
         <v>4400</v>
       </c>
       <c r="C85" s="23" t="s">
@@ -3993,8 +4059,8 @@
       </c>
     </row>
     <row r="86" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="44"/>
-      <c r="B86" s="44"/>
+      <c r="A86" s="43"/>
+      <c r="B86" s="43"/>
       <c r="C86" s="23" t="s">
         <v>10</v>
       </c>
@@ -4018,8 +4084,8 @@
       </c>
     </row>
     <row r="87" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="44"/>
-      <c r="B87" s="44"/>
+      <c r="A87" s="43"/>
+      <c r="B87" s="43"/>
       <c r="C87" s="23" t="s">
         <v>44</v>
       </c>
@@ -4043,8 +4109,8 @@
       </c>
     </row>
     <row r="88" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="44"/>
-      <c r="B88" s="44"/>
+      <c r="A88" s="43"/>
+      <c r="B88" s="43"/>
       <c r="C88" s="24" t="s">
         <v>48</v>
       </c>
@@ -4056,8 +4122,8 @@
       <c r="I88" s="7"/>
     </row>
     <row r="89" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="45"/>
-      <c r="B89" s="45"/>
+      <c r="A89" s="44"/>
+      <c r="B89" s="44"/>
       <c r="C89" s="23" t="s">
         <v>19</v>
       </c>
@@ -4081,10 +4147,10 @@
       </c>
     </row>
     <row r="90" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="48" t="s">
+      <c r="A90" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="B90" s="48">
+      <c r="B90" s="42">
         <v>4500</v>
       </c>
       <c r="C90" s="21" t="s">
@@ -4110,8 +4176,8 @@
       </c>
     </row>
     <row r="91" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="44"/>
-      <c r="B91" s="44"/>
+      <c r="A91" s="43"/>
+      <c r="B91" s="43"/>
       <c r="C91" s="21" t="s">
         <v>10</v>
       </c>
@@ -4135,8 +4201,8 @@
       </c>
     </row>
     <row r="92" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="44"/>
-      <c r="B92" s="44"/>
+      <c r="A92" s="43"/>
+      <c r="B92" s="43"/>
       <c r="C92" s="21" t="s">
         <v>50</v>
       </c>
@@ -4160,8 +4226,8 @@
       </c>
     </row>
     <row r="93" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="44"/>
-      <c r="B93" s="44"/>
+      <c r="A93" s="43"/>
+      <c r="B93" s="43"/>
       <c r="C93" s="22" t="s">
         <v>51</v>
       </c>
@@ -4173,8 +4239,8 @@
       <c r="I93" s="13"/>
     </row>
     <row r="94" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="45"/>
-      <c r="B94" s="45"/>
+      <c r="A94" s="44"/>
+      <c r="B94" s="44"/>
       <c r="C94" s="22" t="s">
         <v>48</v>
       </c>
@@ -4186,10 +4252,10 @@
       <c r="I94" s="13"/>
     </row>
     <row r="95" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="46" t="s">
+      <c r="A95" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="B95" s="46">
+      <c r="B95" s="45">
         <v>4500</v>
       </c>
       <c r="C95" s="23" t="s">
@@ -4215,8 +4281,8 @@
       </c>
     </row>
     <row r="96" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="44"/>
-      <c r="B96" s="44"/>
+      <c r="A96" s="43"/>
+      <c r="B96" s="43"/>
       <c r="C96" s="23" t="s">
         <v>12</v>
       </c>
@@ -4240,8 +4306,8 @@
       </c>
     </row>
     <row r="97" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="44"/>
-      <c r="B97" s="44"/>
+      <c r="A97" s="43"/>
+      <c r="B97" s="43"/>
       <c r="C97" s="23" t="s">
         <v>53</v>
       </c>
@@ -4265,8 +4331,8 @@
       </c>
     </row>
     <row r="98" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="44"/>
-      <c r="B98" s="44"/>
+      <c r="A98" s="43"/>
+      <c r="B98" s="43"/>
       <c r="C98" s="24" t="s">
         <v>48</v>
       </c>
@@ -4278,8 +4344,8 @@
       <c r="I98" s="7"/>
     </row>
     <row r="99" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="45"/>
-      <c r="B99" s="45"/>
+      <c r="A99" s="44"/>
+      <c r="B99" s="44"/>
       <c r="C99" s="23" t="s">
         <v>10</v>
       </c>
@@ -4303,10 +4369,10 @@
       </c>
     </row>
     <row r="100" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="48" t="s">
+      <c r="A100" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="B100" s="48">
+      <c r="B100" s="42">
         <v>4500</v>
       </c>
       <c r="C100" s="21" t="s">
@@ -4332,8 +4398,8 @@
       </c>
     </row>
     <row r="101" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="44"/>
-      <c r="B101" s="44"/>
+      <c r="A101" s="43"/>
+      <c r="B101" s="43"/>
       <c r="C101" s="21" t="s">
         <v>53</v>
       </c>
@@ -4357,8 +4423,8 @@
       </c>
     </row>
     <row r="102" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="44"/>
-      <c r="B102" s="44"/>
+      <c r="A102" s="43"/>
+      <c r="B102" s="43"/>
       <c r="C102" s="21" t="s">
         <v>44</v>
       </c>
@@ -4382,8 +4448,8 @@
       </c>
     </row>
     <row r="103" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="44"/>
-      <c r="B103" s="44"/>
+      <c r="A103" s="43"/>
+      <c r="B103" s="43"/>
       <c r="C103" s="22" t="s">
         <v>55</v>
       </c>
@@ -4395,8 +4461,8 @@
       <c r="I103" s="13"/>
     </row>
     <row r="104" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="45"/>
-      <c r="B104" s="45"/>
+      <c r="A104" s="44"/>
+      <c r="B104" s="44"/>
       <c r="C104" s="22" t="s">
         <v>45</v>
       </c>
@@ -4408,10 +4474,10 @@
       <c r="I104" s="13"/>
     </row>
     <row r="105" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="46" t="s">
+      <c r="A105" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="B105" s="46">
+      <c r="B105" s="45">
         <v>4400</v>
       </c>
       <c r="C105" s="23" t="s">
@@ -4437,8 +4503,8 @@
       </c>
     </row>
     <row r="106" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="44"/>
-      <c r="B106" s="44"/>
+      <c r="A106" s="43"/>
+      <c r="B106" s="43"/>
       <c r="C106" s="23" t="s">
         <v>10</v>
       </c>
@@ -4462,8 +4528,8 @@
       </c>
     </row>
     <row r="107" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="44"/>
-      <c r="B107" s="44"/>
+      <c r="A107" s="43"/>
+      <c r="B107" s="43"/>
       <c r="C107" s="23" t="s">
         <v>19</v>
       </c>
@@ -4487,8 +4553,8 @@
       </c>
     </row>
     <row r="108" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="45"/>
-      <c r="B108" s="45"/>
+      <c r="A108" s="44"/>
+      <c r="B108" s="44"/>
       <c r="C108" s="23" t="s">
         <v>53</v>
       </c>
@@ -4512,10 +4578,10 @@
       </c>
     </row>
     <row r="109" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="48" t="s">
+      <c r="A109" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="B109" s="48">
+      <c r="B109" s="42">
         <v>4400</v>
       </c>
       <c r="C109" s="21" t="s">
@@ -4541,8 +4607,8 @@
       </c>
     </row>
     <row r="110" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="44"/>
-      <c r="B110" s="44"/>
+      <c r="A110" s="43"/>
+      <c r="B110" s="43"/>
       <c r="C110" s="21" t="s">
         <v>10</v>
       </c>
@@ -4566,8 +4632,8 @@
       </c>
     </row>
     <row r="111" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="44"/>
-      <c r="B111" s="44"/>
+      <c r="A111" s="43"/>
+      <c r="B111" s="43"/>
       <c r="C111" s="21" t="s">
         <v>53</v>
       </c>
@@ -4591,8 +4657,8 @@
       </c>
     </row>
     <row r="112" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A112" s="44"/>
-      <c r="B112" s="44"/>
+      <c r="A112" s="43"/>
+      <c r="B112" s="43"/>
       <c r="C112" s="21" t="s">
         <v>19</v>
       </c>
@@ -4616,8 +4682,8 @@
       </c>
     </row>
     <row r="113" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A113" s="45"/>
-      <c r="B113" s="45"/>
+      <c r="A113" s="44"/>
+      <c r="B113" s="44"/>
       <c r="C113" s="22" t="s">
         <v>48</v>
       </c>
@@ -4629,10 +4695,10 @@
       <c r="I113" s="13"/>
     </row>
     <row r="114" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A114" s="46" t="s">
+      <c r="A114" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="B114" s="46">
+      <c r="B114" s="45">
         <v>4600</v>
       </c>
       <c r="C114" s="25" t="s">
@@ -4658,8 +4724,8 @@
       </c>
     </row>
     <row r="115" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A115" s="44"/>
-      <c r="B115" s="44"/>
+      <c r="A115" s="43"/>
+      <c r="B115" s="43"/>
       <c r="C115" s="25" t="s">
         <v>44</v>
       </c>
@@ -4683,8 +4749,8 @@
       </c>
     </row>
     <row r="116" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A116" s="44"/>
-      <c r="B116" s="44"/>
+      <c r="A116" s="43"/>
+      <c r="B116" s="43"/>
       <c r="C116" s="25" t="s">
         <v>10</v>
       </c>
@@ -4708,8 +4774,8 @@
       </c>
     </row>
     <row r="117" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A117" s="44"/>
-      <c r="B117" s="44"/>
+      <c r="A117" s="43"/>
+      <c r="B117" s="43"/>
       <c r="C117" s="26" t="s">
         <v>55</v>
       </c>
@@ -4721,8 +4787,8 @@
       <c r="I117" s="7"/>
     </row>
     <row r="118" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A118" s="44"/>
-      <c r="B118" s="44"/>
+      <c r="A118" s="43"/>
+      <c r="B118" s="43"/>
       <c r="C118" s="26" t="s">
         <v>48</v>
       </c>
@@ -4734,8 +4800,8 @@
       <c r="I118" s="7"/>
     </row>
     <row r="119" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A119" s="45"/>
-      <c r="B119" s="45"/>
+      <c r="A119" s="44"/>
+      <c r="B119" s="44"/>
       <c r="C119" s="26" t="s">
         <v>59</v>
       </c>
@@ -4747,10 +4813,10 @@
       <c r="I119" s="7"/>
     </row>
     <row r="120" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A120" s="48" t="s">
+      <c r="A120" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="B120" s="48">
+      <c r="B120" s="42">
         <v>4200</v>
       </c>
       <c r="C120" s="11" t="s">
@@ -4776,8 +4842,8 @@
       </c>
     </row>
     <row r="121" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A121" s="44"/>
-      <c r="B121" s="44"/>
+      <c r="A121" s="43"/>
+      <c r="B121" s="43"/>
       <c r="C121" s="11" t="s">
         <v>48</v>
       </c>
@@ -4801,8 +4867,8 @@
       </c>
     </row>
     <row r="122" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A122" s="44"/>
-      <c r="B122" s="44"/>
+      <c r="A122" s="43"/>
+      <c r="B122" s="43"/>
       <c r="C122" s="11" t="s">
         <v>10</v>
       </c>
@@ -4826,8 +4892,8 @@
       </c>
     </row>
     <row r="123" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A123" s="45"/>
-      <c r="B123" s="45"/>
+      <c r="A123" s="44"/>
+      <c r="B123" s="44"/>
       <c r="C123" s="11" t="s">
         <v>19</v>
       </c>
@@ -4851,10 +4917,10 @@
       </c>
     </row>
     <row r="124" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A124" s="46" t="s">
+      <c r="A124" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="B124" s="46">
+      <c r="B124" s="45">
         <v>4200</v>
       </c>
       <c r="C124" s="5" t="s">
@@ -4880,8 +4946,8 @@
       </c>
     </row>
     <row r="125" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A125" s="44"/>
-      <c r="B125" s="44"/>
+      <c r="A125" s="43"/>
+      <c r="B125" s="43"/>
       <c r="C125" s="5" t="s">
         <v>48</v>
       </c>
@@ -4905,8 +4971,8 @@
       </c>
     </row>
     <row r="126" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A126" s="44"/>
-      <c r="B126" s="44"/>
+      <c r="A126" s="43"/>
+      <c r="B126" s="43"/>
       <c r="C126" s="5" t="s">
         <v>55</v>
       </c>
@@ -4930,8 +4996,8 @@
       </c>
     </row>
     <row r="127" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A127" s="44"/>
-      <c r="B127" s="44"/>
+      <c r="A127" s="43"/>
+      <c r="B127" s="43"/>
       <c r="C127" s="5" t="s">
         <v>9</v>
       </c>
@@ -4955,8 +5021,8 @@
       </c>
     </row>
     <row r="128" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A128" s="45"/>
-      <c r="B128" s="45"/>
+      <c r="A128" s="44"/>
+      <c r="B128" s="44"/>
       <c r="C128" s="5" t="s">
         <v>10</v>
       </c>
@@ -4980,10 +5046,10 @@
       </c>
     </row>
     <row r="129" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A129" s="48" t="s">
+      <c r="A129" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="B129" s="48">
+      <c r="B129" s="42">
         <v>3900</v>
       </c>
       <c r="C129" s="21" t="s">
@@ -5009,8 +5075,8 @@
       </c>
     </row>
     <row r="130" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A130" s="44"/>
-      <c r="B130" s="44"/>
+      <c r="A130" s="43"/>
+      <c r="B130" s="43"/>
       <c r="C130" s="21" t="s">
         <v>48</v>
       </c>
@@ -5034,8 +5100,8 @@
       </c>
     </row>
     <row r="131" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A131" s="44"/>
-      <c r="B131" s="44"/>
+      <c r="A131" s="43"/>
+      <c r="B131" s="43"/>
       <c r="C131" s="21" t="s">
         <v>19</v>
       </c>
@@ -5059,8 +5125,8 @@
       </c>
     </row>
     <row r="132" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A132" s="45"/>
-      <c r="B132" s="45"/>
+      <c r="A132" s="44"/>
+      <c r="B132" s="44"/>
       <c r="C132" s="21" t="s">
         <v>63</v>
       </c>
@@ -5084,10 +5150,10 @@
       </c>
     </row>
     <row r="133" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A133" s="46" t="s">
+      <c r="A133" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="B133" s="46">
+      <c r="B133" s="45">
         <v>3900</v>
       </c>
       <c r="C133" s="23" t="s">
@@ -5113,8 +5179,8 @@
       </c>
     </row>
     <row r="134" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A134" s="44"/>
-      <c r="B134" s="44"/>
+      <c r="A134" s="43"/>
+      <c r="B134" s="43"/>
       <c r="C134" s="23" t="s">
         <v>63</v>
       </c>
@@ -5138,8 +5204,8 @@
       </c>
     </row>
     <row r="135" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A135" s="44"/>
-      <c r="B135" s="44"/>
+      <c r="A135" s="43"/>
+      <c r="B135" s="43"/>
       <c r="C135" s="23" t="s">
         <v>10</v>
       </c>
@@ -5163,8 +5229,8 @@
       </c>
     </row>
     <row r="136" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A136" s="45"/>
-      <c r="B136" s="45"/>
+      <c r="A136" s="44"/>
+      <c r="B136" s="44"/>
       <c r="C136" s="23" t="s">
         <v>55</v>
       </c>
@@ -5188,10 +5254,10 @@
       </c>
     </row>
     <row r="137" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A137" s="48" t="s">
+      <c r="A137" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="B137" s="48">
+      <c r="B137" s="42">
         <v>3900</v>
       </c>
       <c r="C137" s="21" t="s">
@@ -5217,8 +5283,8 @@
       </c>
     </row>
     <row r="138" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A138" s="44"/>
-      <c r="B138" s="44"/>
+      <c r="A138" s="43"/>
+      <c r="B138" s="43"/>
       <c r="C138" s="21" t="s">
         <v>51</v>
       </c>
@@ -5242,8 +5308,8 @@
       </c>
     </row>
     <row r="139" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A139" s="44"/>
-      <c r="B139" s="44"/>
+      <c r="A139" s="43"/>
+      <c r="B139" s="43"/>
       <c r="C139" s="21" t="s">
         <v>11</v>
       </c>
@@ -5267,8 +5333,8 @@
       </c>
     </row>
     <row r="140" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A140" s="45"/>
-      <c r="B140" s="45"/>
+      <c r="A140" s="44"/>
+      <c r="B140" s="44"/>
       <c r="C140" s="11" t="s">
         <v>10</v>
       </c>
@@ -5292,10 +5358,10 @@
       </c>
     </row>
     <row r="141" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A141" s="46" t="s">
+      <c r="A141" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="B141" s="46">
+      <c r="B141" s="45">
         <v>4200</v>
       </c>
       <c r="C141" s="23" t="s">
@@ -5321,8 +5387,8 @@
       </c>
     </row>
     <row r="142" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A142" s="44"/>
-      <c r="B142" s="44"/>
+      <c r="A142" s="43"/>
+      <c r="B142" s="43"/>
       <c r="C142" s="23" t="s">
         <v>51</v>
       </c>
@@ -5346,8 +5412,8 @@
       </c>
     </row>
     <row r="143" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A143" s="44"/>
-      <c r="B143" s="44"/>
+      <c r="A143" s="43"/>
+      <c r="B143" s="43"/>
       <c r="C143" s="23" t="s">
         <v>11</v>
       </c>
@@ -5371,8 +5437,8 @@
       </c>
     </row>
     <row r="144" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A144" s="45"/>
-      <c r="B144" s="45"/>
+      <c r="A144" s="44"/>
+      <c r="B144" s="44"/>
       <c r="C144" s="23" t="s">
         <v>10</v>
       </c>
@@ -5396,10 +5462,10 @@
       </c>
     </row>
     <row r="145" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A145" s="48" t="s">
+      <c r="A145" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="B145" s="48">
+      <c r="B145" s="42">
         <v>4700</v>
       </c>
       <c r="C145" s="21" t="s">
@@ -5425,8 +5491,8 @@
       </c>
     </row>
     <row r="146" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A146" s="44"/>
-      <c r="B146" s="44"/>
+      <c r="A146" s="43"/>
+      <c r="B146" s="43"/>
       <c r="C146" s="21" t="s">
         <v>63</v>
       </c>
@@ -5450,8 +5516,8 @@
       </c>
     </row>
     <row r="147" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A147" s="44"/>
-      <c r="B147" s="44"/>
+      <c r="A147" s="43"/>
+      <c r="B147" s="43"/>
       <c r="C147" s="21" t="s">
         <v>10</v>
       </c>
@@ -5475,8 +5541,8 @@
       </c>
     </row>
     <row r="148" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A148" s="45"/>
-      <c r="B148" s="45"/>
+      <c r="A148" s="44"/>
+      <c r="B148" s="44"/>
       <c r="C148" s="21" t="s">
         <v>11</v>
       </c>
@@ -5500,10 +5566,10 @@
       </c>
     </row>
     <row r="149" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A149" s="46" t="s">
+      <c r="A149" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="B149" s="46">
+      <c r="B149" s="45">
         <v>4700</v>
       </c>
       <c r="C149" s="23" t="s">
@@ -5529,8 +5595,8 @@
       </c>
     </row>
     <row r="150" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A150" s="44"/>
-      <c r="B150" s="44"/>
+      <c r="A150" s="43"/>
+      <c r="B150" s="43"/>
       <c r="C150" s="23" t="s">
         <v>63</v>
       </c>
@@ -5554,8 +5620,8 @@
       </c>
     </row>
     <row r="151" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A151" s="44"/>
-      <c r="B151" s="44"/>
+      <c r="A151" s="43"/>
+      <c r="B151" s="43"/>
       <c r="C151" s="23" t="s">
         <v>10</v>
       </c>
@@ -5579,8 +5645,8 @@
       </c>
     </row>
     <row r="152" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A152" s="45"/>
-      <c r="B152" s="45"/>
+      <c r="A152" s="44"/>
+      <c r="B152" s="44"/>
       <c r="C152" s="23" t="s">
         <v>11</v>
       </c>
@@ -5604,10 +5670,10 @@
       </c>
     </row>
     <row r="153" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A153" s="48" t="s">
+      <c r="A153" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="B153" s="48">
+      <c r="B153" s="42">
         <v>4400</v>
       </c>
       <c r="C153" s="27" t="s">
@@ -5633,8 +5699,8 @@
       </c>
     </row>
     <row r="154" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A154" s="44"/>
-      <c r="B154" s="44"/>
+      <c r="A154" s="43"/>
+      <c r="B154" s="43"/>
       <c r="C154" s="27" t="s">
         <v>15</v>
       </c>
@@ -5658,8 +5724,8 @@
       </c>
     </row>
     <row r="155" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A155" s="44"/>
-      <c r="B155" s="44"/>
+      <c r="A155" s="43"/>
+      <c r="B155" s="43"/>
       <c r="C155" s="27" t="s">
         <v>10</v>
       </c>
@@ -5683,8 +5749,8 @@
       </c>
     </row>
     <row r="156" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A156" s="45"/>
-      <c r="B156" s="45"/>
+      <c r="A156" s="44"/>
+      <c r="B156" s="44"/>
       <c r="C156" s="28" t="s">
         <v>19</v>
       </c>
@@ -5708,10 +5774,10 @@
       </c>
     </row>
     <row r="157" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A157" s="46" t="s">
+      <c r="A157" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="B157" s="46">
+      <c r="B157" s="45">
         <v>4400</v>
       </c>
       <c r="C157" s="29" t="s">
@@ -5737,8 +5803,8 @@
       </c>
     </row>
     <row r="158" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A158" s="44"/>
-      <c r="B158" s="44"/>
+      <c r="A158" s="43"/>
+      <c r="B158" s="43"/>
       <c r="C158" s="29" t="s">
         <v>15</v>
       </c>
@@ -5762,8 +5828,8 @@
       </c>
     </row>
     <row r="159" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A159" s="45"/>
-      <c r="B159" s="45"/>
+      <c r="A159" s="44"/>
+      <c r="B159" s="44"/>
       <c r="C159" s="29" t="s">
         <v>10</v>
       </c>
@@ -5787,10 +5853,10 @@
       </c>
     </row>
     <row r="160" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A160" s="48" t="s">
+      <c r="A160" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="B160" s="48">
+      <c r="B160" s="42">
         <v>4400</v>
       </c>
       <c r="C160" s="27" t="s">
@@ -5816,8 +5882,8 @@
       </c>
     </row>
     <row r="161" spans="1:22" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A161" s="44"/>
-      <c r="B161" s="44"/>
+      <c r="A161" s="43"/>
+      <c r="B161" s="43"/>
       <c r="C161" s="27" t="s">
         <v>15</v>
       </c>
@@ -5841,8 +5907,8 @@
       </c>
     </row>
     <row r="162" spans="1:22" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A162" s="44"/>
-      <c r="B162" s="44"/>
+      <c r="A162" s="43"/>
+      <c r="B162" s="43"/>
       <c r="C162" s="27" t="s">
         <v>10</v>
       </c>
@@ -5866,8 +5932,8 @@
       </c>
     </row>
     <row r="163" spans="1:22" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A163" s="45"/>
-      <c r="B163" s="45"/>
+      <c r="A163" s="44"/>
+      <c r="B163" s="44"/>
       <c r="C163" s="22" t="s">
         <v>59</v>
       </c>
@@ -5879,10 +5945,10 @@
       <c r="I163" s="13"/>
     </row>
     <row r="164" spans="1:22" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A164" s="46" t="s">
+      <c r="A164" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="B164" s="46">
+      <c r="B164" s="45">
         <v>3900</v>
       </c>
       <c r="C164" s="29" t="s">
@@ -5908,8 +5974,8 @@
       </c>
     </row>
     <row r="165" spans="1:22" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A165" s="44"/>
-      <c r="B165" s="44"/>
+      <c r="A165" s="43"/>
+      <c r="B165" s="43"/>
       <c r="C165" s="29" t="s">
         <v>10</v>
       </c>
@@ -5933,8 +5999,8 @@
       </c>
     </row>
     <row r="166" spans="1:22" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A166" s="45"/>
-      <c r="B166" s="45"/>
+      <c r="A166" s="44"/>
+      <c r="B166" s="44"/>
       <c r="C166" s="29" t="s">
         <v>74</v>
       </c>
@@ -5958,10 +6024,10 @@
       </c>
     </row>
     <row r="167" spans="1:22" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A167" s="48" t="s">
+      <c r="A167" s="42" t="s">
         <v>75</v>
       </c>
-      <c r="B167" s="48">
+      <c r="B167" s="42">
         <v>3500</v>
       </c>
       <c r="C167" s="27" t="s">
@@ -5987,8 +6053,8 @@
       </c>
     </row>
     <row r="168" spans="1:22" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A168" s="44"/>
-      <c r="B168" s="44"/>
+      <c r="A168" s="43"/>
+      <c r="B168" s="43"/>
       <c r="C168" s="27" t="s">
         <v>10</v>
       </c>
@@ -6012,8 +6078,8 @@
       </c>
     </row>
     <row r="169" spans="1:22" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A169" s="44"/>
-      <c r="B169" s="44"/>
+      <c r="A169" s="43"/>
+      <c r="B169" s="43"/>
       <c r="C169" s="27" t="s">
         <v>51</v>
       </c>
@@ -6037,8 +6103,8 @@
       </c>
     </row>
     <row r="170" spans="1:22" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A170" s="44"/>
-      <c r="B170" s="44"/>
+      <c r="A170" s="43"/>
+      <c r="B170" s="43"/>
       <c r="C170" s="27" t="s">
         <v>36</v>
       </c>
@@ -6062,8 +6128,8 @@
       </c>
     </row>
     <row r="171" spans="1:22" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A171" s="45"/>
-      <c r="B171" s="45"/>
+      <c r="A171" s="44"/>
+      <c r="B171" s="44"/>
       <c r="C171" s="27" t="s">
         <v>38</v>
       </c>
@@ -6087,10 +6153,10 @@
       </c>
     </row>
     <row r="172" spans="1:22" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A172" s="51" t="s">
+      <c r="A172" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="B172" s="51" t="s">
+      <c r="B172" s="49" t="s">
         <v>77</v>
       </c>
       <c r="C172" s="30" t="s">
@@ -6129,8 +6195,8 @@
       <c r="V172" s="31"/>
     </row>
     <row r="173" spans="1:22" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A173" s="44"/>
-      <c r="B173" s="44"/>
+      <c r="A173" s="43"/>
+      <c r="B173" s="43"/>
       <c r="C173" s="30" t="s">
         <v>10</v>
       </c>
@@ -6167,8 +6233,8 @@
       <c r="V173" s="31"/>
     </row>
     <row r="174" spans="1:22" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A174" s="45"/>
-      <c r="B174" s="45"/>
+      <c r="A174" s="44"/>
+      <c r="B174" s="44"/>
       <c r="C174" s="30" t="s">
         <v>63</v>
       </c>
@@ -6205,10 +6271,10 @@
       <c r="V174" s="31"/>
     </row>
     <row r="175" spans="1:22" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A175" s="48" t="s">
+      <c r="A175" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="B175" s="48">
+      <c r="B175" s="42">
         <v>4200</v>
       </c>
       <c r="C175" s="28" t="s">
@@ -6247,8 +6313,8 @@
       <c r="V175" s="31"/>
     </row>
     <row r="176" spans="1:22" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A176" s="44"/>
-      <c r="B176" s="44"/>
+      <c r="A176" s="43"/>
+      <c r="B176" s="43"/>
       <c r="C176" s="28" t="s">
         <v>10</v>
       </c>
@@ -6285,8 +6351,8 @@
       <c r="V176" s="31"/>
     </row>
     <row r="177" spans="1:22" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A177" s="45"/>
-      <c r="B177" s="45"/>
+      <c r="A177" s="44"/>
+      <c r="B177" s="44"/>
       <c r="C177" s="28" t="s">
         <v>51</v>
       </c>
@@ -6323,10 +6389,10 @@
       <c r="V177" s="31"/>
     </row>
     <row r="178" spans="1:22" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A178" s="51" t="s">
+      <c r="A178" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="B178" s="51" t="s">
+      <c r="B178" s="49" t="s">
         <v>80</v>
       </c>
       <c r="C178" s="30" t="s">
@@ -6365,8 +6431,8 @@
       <c r="V178" s="31"/>
     </row>
     <row r="179" spans="1:22" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A179" s="44"/>
-      <c r="B179" s="44"/>
+      <c r="A179" s="43"/>
+      <c r="B179" s="43"/>
       <c r="C179" s="30" t="s">
         <v>11</v>
       </c>
@@ -6403,8 +6469,8 @@
       <c r="V179" s="31"/>
     </row>
     <row r="180" spans="1:22" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A180" s="45"/>
-      <c r="B180" s="45"/>
+      <c r="A180" s="44"/>
+      <c r="B180" s="44"/>
       <c r="C180" s="30" t="s">
         <v>19</v>
       </c>
@@ -6441,10 +6507,10 @@
       <c r="V180" s="31"/>
     </row>
     <row r="181" spans="1:22" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A181" s="52" t="s">
+      <c r="A181" s="46" t="s">
         <v>81</v>
       </c>
-      <c r="B181" s="52" t="s">
+      <c r="B181" s="46" t="s">
         <v>80</v>
       </c>
       <c r="C181" s="28" t="s">
@@ -6483,8 +6549,8 @@
       <c r="V181" s="31"/>
     </row>
     <row r="182" spans="1:22" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A182" s="44"/>
-      <c r="B182" s="44"/>
+      <c r="A182" s="43"/>
+      <c r="B182" s="43"/>
       <c r="C182" s="28" t="s">
         <v>63</v>
       </c>
@@ -6521,8 +6587,8 @@
       <c r="V182" s="31"/>
     </row>
     <row r="183" spans="1:22" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A183" s="44"/>
-      <c r="B183" s="44"/>
+      <c r="A183" s="43"/>
+      <c r="B183" s="43"/>
       <c r="C183" s="28" t="s">
         <v>10</v>
       </c>
@@ -6559,8 +6625,8 @@
       <c r="V183" s="31"/>
     </row>
     <row r="184" spans="1:22" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A184" s="45"/>
-      <c r="B184" s="45"/>
+      <c r="A184" s="44"/>
+      <c r="B184" s="44"/>
       <c r="C184" s="32" t="s">
         <v>11</v>
       </c>
@@ -6597,10 +6663,10 @@
       <c r="V184" s="31"/>
     </row>
     <row r="185" spans="1:22" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A185" s="46" t="s">
+      <c r="A185" s="45" t="s">
         <v>83</v>
       </c>
-      <c r="B185" s="46">
+      <c r="B185" s="45">
         <v>3900</v>
       </c>
       <c r="C185" s="30" t="s">
@@ -6639,8 +6705,8 @@
       <c r="V185" s="31"/>
     </row>
     <row r="186" spans="1:22" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A186" s="44"/>
-      <c r="B186" s="44"/>
+      <c r="A186" s="43"/>
+      <c r="B186" s="43"/>
       <c r="C186" s="30" t="s">
         <v>10</v>
       </c>
@@ -6677,8 +6743,8 @@
       <c r="V186" s="31"/>
     </row>
     <row r="187" spans="1:22" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A187" s="44"/>
-      <c r="B187" s="44"/>
+      <c r="A187" s="43"/>
+      <c r="B187" s="43"/>
       <c r="C187" s="30" t="s">
         <v>55</v>
       </c>
@@ -6715,8 +6781,8 @@
       <c r="V187" s="31"/>
     </row>
     <row r="188" spans="1:22" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A188" s="45"/>
-      <c r="B188" s="45"/>
+      <c r="A188" s="44"/>
+      <c r="B188" s="44"/>
       <c r="C188" s="33" t="s">
         <v>74</v>
       </c>
@@ -6753,10 +6819,10 @@
       <c r="V188" s="31"/>
     </row>
     <row r="189" spans="1:22" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A189" s="47" t="s">
+      <c r="A189" s="52" t="s">
         <v>84</v>
       </c>
-      <c r="B189" s="47">
+      <c r="B189" s="52">
         <v>3900</v>
       </c>
       <c r="C189" s="28" t="s">
@@ -6795,8 +6861,8 @@
       <c r="V189" s="31"/>
     </row>
     <row r="190" spans="1:22" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A190" s="44"/>
-      <c r="B190" s="44"/>
+      <c r="A190" s="43"/>
+      <c r="B190" s="43"/>
       <c r="C190" s="28" t="s">
         <v>85</v>
       </c>
@@ -6833,8 +6899,8 @@
       <c r="V190" s="31"/>
     </row>
     <row r="191" spans="1:22" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A191" s="44"/>
-      <c r="B191" s="44"/>
+      <c r="A191" s="43"/>
+      <c r="B191" s="43"/>
       <c r="C191" s="28" t="s">
         <v>55</v>
       </c>
@@ -6871,8 +6937,8 @@
       <c r="V191" s="31"/>
     </row>
     <row r="192" spans="1:22" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A192" s="45"/>
-      <c r="B192" s="45"/>
+      <c r="A192" s="44"/>
+      <c r="B192" s="44"/>
       <c r="C192" s="32" t="s">
         <v>51</v>
       </c>
@@ -6909,10 +6975,10 @@
       <c r="V192" s="31"/>
     </row>
     <row r="193" spans="1:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A193" s="46" t="s">
+      <c r="A193" s="45" t="s">
         <v>86</v>
       </c>
-      <c r="B193" s="46">
+      <c r="B193" s="45">
         <v>3900</v>
       </c>
       <c r="C193" s="30" t="s">
@@ -6951,8 +7017,8 @@
       <c r="V193" s="31"/>
     </row>
     <row r="194" spans="1:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A194" s="44"/>
-      <c r="B194" s="44"/>
+      <c r="A194" s="43"/>
+      <c r="B194" s="43"/>
       <c r="C194" s="30" t="s">
         <v>36</v>
       </c>
@@ -6989,8 +7055,8 @@
       <c r="V194" s="31"/>
     </row>
     <row r="195" spans="1:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A195" s="44"/>
-      <c r="B195" s="44"/>
+      <c r="A195" s="43"/>
+      <c r="B195" s="43"/>
       <c r="C195" s="30" t="s">
         <v>38</v>
       </c>
@@ -7027,8 +7093,8 @@
       <c r="V195" s="31"/>
     </row>
     <row r="196" spans="1:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A196" s="44"/>
-      <c r="B196" s="44"/>
+      <c r="A196" s="43"/>
+      <c r="B196" s="43"/>
       <c r="C196" s="30" t="s">
         <v>87</v>
       </c>
@@ -7065,10 +7131,10 @@
       <c r="V196" s="31"/>
     </row>
     <row r="197" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A197" s="48" t="s">
+      <c r="A197" s="42" t="s">
         <v>88</v>
       </c>
-      <c r="B197" s="48">
+      <c r="B197" s="42">
         <v>3900</v>
       </c>
       <c r="C197" s="28" t="s">
@@ -7107,8 +7173,8 @@
       <c r="V197" s="31"/>
     </row>
     <row r="198" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A198" s="44"/>
-      <c r="B198" s="44"/>
+      <c r="A198" s="43"/>
+      <c r="B198" s="43"/>
       <c r="C198" s="28" t="s">
         <v>36</v>
       </c>
@@ -7145,8 +7211,8 @@
       <c r="V198" s="31"/>
     </row>
     <row r="199" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A199" s="44"/>
-      <c r="B199" s="44"/>
+      <c r="A199" s="43"/>
+      <c r="B199" s="43"/>
       <c r="C199" s="28" t="s">
         <v>38</v>
       </c>
@@ -7183,8 +7249,8 @@
       <c r="V199" s="31"/>
     </row>
     <row r="200" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A200" s="45"/>
-      <c r="B200" s="45"/>
+      <c r="A200" s="44"/>
+      <c r="B200" s="44"/>
       <c r="C200" s="28" t="s">
         <v>37</v>
       </c>
@@ -7221,10 +7287,10 @@
       <c r="V200" s="31"/>
     </row>
     <row r="201" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A201" s="46" t="s">
+      <c r="A201" s="45" t="s">
         <v>89</v>
       </c>
-      <c r="B201" s="46">
+      <c r="B201" s="45">
         <v>3900</v>
       </c>
       <c r="C201" s="30" t="s">
@@ -7263,8 +7329,8 @@
       <c r="V201" s="31"/>
     </row>
     <row r="202" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A202" s="44"/>
-      <c r="B202" s="44"/>
+      <c r="A202" s="43"/>
+      <c r="B202" s="43"/>
       <c r="C202" s="30" t="s">
         <v>36</v>
       </c>
@@ -7301,8 +7367,8 @@
       <c r="V202" s="31"/>
     </row>
     <row r="203" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A203" s="44"/>
-      <c r="B203" s="44"/>
+      <c r="A203" s="43"/>
+      <c r="B203" s="43"/>
       <c r="C203" s="30" t="s">
         <v>38</v>
       </c>
@@ -7339,8 +7405,8 @@
       <c r="V203" s="31"/>
     </row>
     <row r="204" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A204" s="45"/>
-      <c r="B204" s="45"/>
+      <c r="A204" s="44"/>
+      <c r="B204" s="44"/>
       <c r="C204" s="30" t="s">
         <v>37</v>
       </c>
@@ -7377,10 +7443,10 @@
       <c r="V204" s="31"/>
     </row>
     <row r="205" spans="1:22" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A205" s="48" t="s">
+      <c r="A205" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="B205" s="48">
+      <c r="B205" s="42">
         <v>3900</v>
       </c>
       <c r="C205" s="28" t="s">
@@ -7419,8 +7485,8 @@
       <c r="V205" s="31"/>
     </row>
     <row r="206" spans="1:22" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A206" s="44"/>
-      <c r="B206" s="44"/>
+      <c r="A206" s="43"/>
+      <c r="B206" s="43"/>
       <c r="C206" s="28" t="s">
         <v>36</v>
       </c>
@@ -7457,8 +7523,8 @@
       <c r="V206" s="31"/>
     </row>
     <row r="207" spans="1:22" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A207" s="44"/>
-      <c r="B207" s="44"/>
+      <c r="A207" s="43"/>
+      <c r="B207" s="43"/>
       <c r="C207" s="28" t="s">
         <v>38</v>
       </c>
@@ -7495,8 +7561,8 @@
       <c r="V207" s="31"/>
     </row>
     <row r="208" spans="1:22" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A208" s="45"/>
-      <c r="B208" s="45"/>
+      <c r="A208" s="44"/>
+      <c r="B208" s="44"/>
       <c r="C208" s="28" t="s">
         <v>37</v>
       </c>
@@ -7533,10 +7599,10 @@
       <c r="V208" s="31"/>
     </row>
     <row r="209" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A209" s="46" t="s">
+      <c r="A209" s="45" t="s">
         <v>91</v>
       </c>
-      <c r="B209" s="46">
+      <c r="B209" s="45">
         <v>3900</v>
       </c>
       <c r="C209" s="30" t="s">
@@ -7575,8 +7641,8 @@
       <c r="V209" s="31"/>
     </row>
     <row r="210" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A210" s="44"/>
-      <c r="B210" s="44"/>
+      <c r="A210" s="43"/>
+      <c r="B210" s="43"/>
       <c r="C210" s="30" t="s">
         <v>10</v>
       </c>
@@ -7613,8 +7679,8 @@
       <c r="V210" s="31"/>
     </row>
     <row r="211" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A211" s="44"/>
-      <c r="B211" s="44"/>
+      <c r="A211" s="43"/>
+      <c r="B211" s="43"/>
       <c r="C211" s="30" t="s">
         <v>11</v>
       </c>
@@ -7651,8 +7717,8 @@
       <c r="V211" s="31"/>
     </row>
     <row r="212" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A212" s="45"/>
-      <c r="B212" s="45"/>
+      <c r="A212" s="44"/>
+      <c r="B212" s="44"/>
       <c r="C212" s="33" t="s">
         <v>63</v>
       </c>
@@ -7689,10 +7755,10 @@
       <c r="V212" s="31"/>
     </row>
     <row r="213" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A213" s="48" t="s">
+      <c r="A213" s="42" t="s">
         <v>92</v>
       </c>
-      <c r="B213" s="48">
+      <c r="B213" s="42">
         <v>3900</v>
       </c>
       <c r="C213" s="28" t="s">
@@ -7731,8 +7797,8 @@
       <c r="V213" s="31"/>
     </row>
     <row r="214" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A214" s="44"/>
-      <c r="B214" s="44"/>
+      <c r="A214" s="43"/>
+      <c r="B214" s="43"/>
       <c r="C214" s="28" t="s">
         <v>11</v>
       </c>
@@ -7769,8 +7835,8 @@
       <c r="V214" s="31"/>
     </row>
     <row r="215" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A215" s="44"/>
-      <c r="B215" s="44"/>
+      <c r="A215" s="43"/>
+      <c r="B215" s="43"/>
       <c r="C215" s="28" t="s">
         <v>10</v>
       </c>
@@ -7807,8 +7873,8 @@
       <c r="V215" s="31"/>
     </row>
     <row r="216" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A216" s="45"/>
-      <c r="B216" s="45"/>
+      <c r="A216" s="44"/>
+      <c r="B216" s="44"/>
       <c r="C216" s="32" t="s">
         <v>63</v>
       </c>
@@ -7833,10 +7899,10 @@
       <c r="V216" s="31"/>
     </row>
     <row r="217" spans="1:22" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A217" s="53" t="s">
+      <c r="A217" s="50" t="s">
         <v>93</v>
       </c>
-      <c r="B217" s="53">
+      <c r="B217" s="50">
         <v>3900</v>
       </c>
       <c r="C217" s="30" t="s">
@@ -7875,8 +7941,8 @@
       <c r="V217" s="31"/>
     </row>
     <row r="218" spans="1:22" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A218" s="44"/>
-      <c r="B218" s="44"/>
+      <c r="A218" s="43"/>
+      <c r="B218" s="43"/>
       <c r="C218" s="30" t="s">
         <v>11</v>
       </c>
@@ -7913,8 +7979,8 @@
       <c r="V218" s="31"/>
     </row>
     <row r="219" spans="1:22" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A219" s="44"/>
-      <c r="B219" s="44"/>
+      <c r="A219" s="43"/>
+      <c r="B219" s="43"/>
       <c r="C219" s="30" t="s">
         <v>10</v>
       </c>
@@ -7951,8 +8017,8 @@
       <c r="V219" s="31"/>
     </row>
     <row r="220" spans="1:22" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A220" s="45"/>
-      <c r="B220" s="45"/>
+      <c r="A220" s="44"/>
+      <c r="B220" s="44"/>
       <c r="C220" s="30" t="s">
         <v>94</v>
       </c>
@@ -7989,10 +8055,10 @@
       <c r="V220" s="31"/>
     </row>
     <row r="221" spans="1:22" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A221" s="48" t="s">
+      <c r="A221" s="42" t="s">
         <v>95</v>
       </c>
-      <c r="B221" s="48">
+      <c r="B221" s="42">
         <v>3900</v>
       </c>
       <c r="C221" s="28" t="s">
@@ -8031,8 +8097,8 @@
       <c r="V221" s="31"/>
     </row>
     <row r="222" spans="1:22" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A222" s="44"/>
-      <c r="B222" s="44"/>
+      <c r="A222" s="43"/>
+      <c r="B222" s="43"/>
       <c r="C222" s="28" t="s">
         <v>11</v>
       </c>
@@ -8069,8 +8135,8 @@
       <c r="V222" s="31"/>
     </row>
     <row r="223" spans="1:22" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A223" s="44"/>
-      <c r="B223" s="44"/>
+      <c r="A223" s="43"/>
+      <c r="B223" s="43"/>
       <c r="C223" s="28" t="s">
         <v>10</v>
       </c>
@@ -8107,8 +8173,8 @@
       <c r="V223" s="31"/>
     </row>
     <row r="224" spans="1:22" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A224" s="44"/>
-      <c r="B224" s="44"/>
+      <c r="A224" s="43"/>
+      <c r="B224" s="43"/>
       <c r="C224" s="28" t="s">
         <v>94</v>
       </c>
@@ -8145,8 +8211,8 @@
       <c r="V224" s="31"/>
     </row>
     <row r="225" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A225" s="45"/>
-      <c r="B225" s="45"/>
+      <c r="A225" s="44"/>
+      <c r="B225" s="44"/>
       <c r="C225" s="32" t="s">
         <v>96</v>
       </c>
@@ -8171,10 +8237,10 @@
       <c r="V225" s="31"/>
     </row>
     <row r="226" spans="1:22" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A226" s="46" t="s">
+      <c r="A226" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="B226" s="46">
+      <c r="B226" s="45">
         <v>3900</v>
       </c>
       <c r="C226" s="30" t="s">
@@ -8213,8 +8279,8 @@
       <c r="V226" s="31"/>
     </row>
     <row r="227" spans="1:22" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A227" s="44"/>
-      <c r="B227" s="44"/>
+      <c r="A227" s="43"/>
+      <c r="B227" s="43"/>
       <c r="C227" s="30" t="s">
         <v>10</v>
       </c>
@@ -8251,8 +8317,8 @@
       <c r="V227" s="31"/>
     </row>
     <row r="228" spans="1:22" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A228" s="44"/>
-      <c r="B228" s="44"/>
+      <c r="A228" s="43"/>
+      <c r="B228" s="43"/>
       <c r="C228" s="30" t="s">
         <v>55</v>
       </c>
@@ -8289,8 +8355,8 @@
       <c r="V228" s="31"/>
     </row>
     <row r="229" spans="1:22" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A229" s="45"/>
-      <c r="B229" s="45"/>
+      <c r="A229" s="44"/>
+      <c r="B229" s="44"/>
       <c r="C229" s="30" t="s">
         <v>94</v>
       </c>
@@ -8327,10 +8393,10 @@
       <c r="V229" s="31"/>
     </row>
     <row r="230" spans="1:22" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A230" s="52" t="s">
+      <c r="A230" s="46" t="s">
         <v>98</v>
       </c>
-      <c r="B230" s="52" t="s">
+      <c r="B230" s="46" t="s">
         <v>99</v>
       </c>
       <c r="C230" s="28" t="s">
@@ -8369,8 +8435,8 @@
       <c r="V230" s="31"/>
     </row>
     <row r="231" spans="1:22" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A231" s="44"/>
-      <c r="B231" s="44"/>
+      <c r="A231" s="43"/>
+      <c r="B231" s="43"/>
       <c r="C231" s="28" t="s">
         <v>36</v>
       </c>
@@ -8407,8 +8473,8 @@
       <c r="V231" s="31"/>
     </row>
     <row r="232" spans="1:22" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A232" s="44"/>
-      <c r="B232" s="44"/>
+      <c r="A232" s="43"/>
+      <c r="B232" s="43"/>
       <c r="C232" s="28" t="s">
         <v>10</v>
       </c>
@@ -8445,8 +8511,8 @@
       <c r="V232" s="31"/>
     </row>
     <row r="233" spans="1:22" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A233" s="45"/>
-      <c r="B233" s="45"/>
+      <c r="A233" s="44"/>
+      <c r="B233" s="44"/>
       <c r="C233" s="32" t="s">
         <v>55</v>
       </c>
@@ -8471,10 +8537,10 @@
       <c r="V233" s="31"/>
     </row>
     <row r="234" spans="1:22" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A234" s="54" t="s">
+      <c r="A234" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="B234" s="54" t="s">
+      <c r="B234" s="51" t="s">
         <v>99</v>
       </c>
       <c r="C234" s="30" t="s">
@@ -8513,8 +8579,8 @@
       <c r="V234" s="31"/>
     </row>
     <row r="235" spans="1:22" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A235" s="44"/>
-      <c r="B235" s="44"/>
+      <c r="A235" s="43"/>
+      <c r="B235" s="43"/>
       <c r="C235" s="30" t="s">
         <v>36</v>
       </c>
@@ -8551,12 +8617,12 @@
       <c r="V235" s="31"/>
     </row>
     <row r="236" spans="1:22" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A236" s="44"/>
-      <c r="B236" s="44"/>
+      <c r="A236" s="43"/>
+      <c r="B236" s="43"/>
       <c r="C236" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="D236" s="43">
+      <c r="D236" s="41">
         <v>0</v>
       </c>
       <c r="E236" s="7">
@@ -8589,8 +8655,8 @@
       <c r="V236" s="31"/>
     </row>
     <row r="237" spans="1:22" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A237" s="45"/>
-      <c r="B237" s="45"/>
+      <c r="A237" s="44"/>
+      <c r="B237" s="44"/>
       <c r="C237" s="33" t="s">
         <v>55</v>
       </c>
@@ -8615,10 +8681,10 @@
       <c r="V237" s="31"/>
     </row>
     <row r="238" spans="1:22" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A238" s="52" t="s">
+      <c r="A238" s="46" t="s">
         <v>101</v>
       </c>
-      <c r="B238" s="52" t="s">
+      <c r="B238" s="46" t="s">
         <v>99</v>
       </c>
       <c r="C238" s="28" t="s">
@@ -8657,8 +8723,8 @@
       <c r="V238" s="31"/>
     </row>
     <row r="239" spans="1:22" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A239" s="44"/>
-      <c r="B239" s="44"/>
+      <c r="A239" s="43"/>
+      <c r="B239" s="43"/>
       <c r="C239" s="28" t="s">
         <v>36</v>
       </c>
@@ -8695,8 +8761,8 @@
       <c r="V239" s="31"/>
     </row>
     <row r="240" spans="1:22" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A240" s="44"/>
-      <c r="B240" s="44"/>
+      <c r="A240" s="43"/>
+      <c r="B240" s="43"/>
       <c r="C240" s="28" t="s">
         <v>10</v>
       </c>
@@ -8733,8 +8799,8 @@
       <c r="V240" s="31"/>
     </row>
     <row r="241" spans="1:22" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A241" s="45"/>
-      <c r="B241" s="45"/>
+      <c r="A241" s="44"/>
+      <c r="B241" s="44"/>
       <c r="C241" s="32" t="s">
         <v>55</v>
       </c>
@@ -8771,10 +8837,10 @@
       <c r="V241" s="31"/>
     </row>
     <row r="242" spans="1:22" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A242" s="46" t="s">
+      <c r="A242" s="45" t="s">
         <v>102</v>
       </c>
-      <c r="B242" s="46">
+      <c r="B242" s="45">
         <v>4500</v>
       </c>
       <c r="C242" s="30" t="s">
@@ -8813,8 +8879,8 @@
       <c r="V242" s="31"/>
     </row>
     <row r="243" spans="1:22" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A243" s="45"/>
-      <c r="B243" s="45"/>
+      <c r="A243" s="44"/>
+      <c r="B243" s="44"/>
       <c r="C243" s="30" t="s">
         <v>36</v>
       </c>
@@ -8851,10 +8917,10 @@
       <c r="V243" s="31"/>
     </row>
     <row r="244" spans="1:22" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A244" s="48" t="s">
+      <c r="A244" s="42" t="s">
         <v>103</v>
       </c>
-      <c r="B244" s="48">
+      <c r="B244" s="42">
         <v>4500</v>
       </c>
       <c r="C244" s="28" t="s">
@@ -8893,8 +8959,8 @@
       <c r="V244" s="31"/>
     </row>
     <row r="245" spans="1:22" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A245" s="44"/>
-      <c r="B245" s="44"/>
+      <c r="A245" s="43"/>
+      <c r="B245" s="43"/>
       <c r="C245" s="28" t="s">
         <v>36</v>
       </c>
@@ -8931,8 +8997,8 @@
       <c r="V245" s="31"/>
     </row>
     <row r="246" spans="1:22" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A246" s="44"/>
-      <c r="B246" s="44"/>
+      <c r="A246" s="43"/>
+      <c r="B246" s="43"/>
       <c r="C246" s="28" t="s">
         <v>38</v>
       </c>
@@ -8969,8 +9035,8 @@
       <c r="V246" s="31"/>
     </row>
     <row r="247" spans="1:22" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A247" s="45"/>
-      <c r="B247" s="45"/>
+      <c r="A247" s="44"/>
+      <c r="B247" s="44"/>
       <c r="C247" s="28" t="s">
         <v>11</v>
       </c>
@@ -9007,10 +9073,10 @@
       <c r="V247" s="31"/>
     </row>
     <row r="248" spans="1:22" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A248" s="46" t="s">
+      <c r="A248" s="45" t="s">
         <v>104</v>
       </c>
-      <c r="B248" s="46">
+      <c r="B248" s="45">
         <v>4500</v>
       </c>
       <c r="C248" s="30" t="s">
@@ -9049,8 +9115,8 @@
       <c r="V248" s="31"/>
     </row>
     <row r="249" spans="1:22" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A249" s="44"/>
-      <c r="B249" s="44"/>
+      <c r="A249" s="43"/>
+      <c r="B249" s="43"/>
       <c r="C249" s="30" t="s">
         <v>36</v>
       </c>
@@ -9087,8 +9153,8 @@
       <c r="V249" s="31"/>
     </row>
     <row r="250" spans="1:22" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A250" s="45"/>
-      <c r="B250" s="45"/>
+      <c r="A250" s="44"/>
+      <c r="B250" s="44"/>
       <c r="C250" s="30" t="s">
         <v>11</v>
       </c>
@@ -9125,10 +9191,10 @@
       <c r="V250" s="31"/>
     </row>
     <row r="251" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A251" s="48" t="s">
+      <c r="A251" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="B251" s="48">
+      <c r="B251" s="42">
         <v>4500</v>
       </c>
       <c r="C251" s="28" t="s">
@@ -9167,8 +9233,8 @@
       <c r="V251" s="31"/>
     </row>
     <row r="252" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A252" s="44"/>
-      <c r="B252" s="44"/>
+      <c r="A252" s="43"/>
+      <c r="B252" s="43"/>
       <c r="C252" s="28" t="s">
         <v>11</v>
       </c>
@@ -9205,8 +9271,8 @@
       <c r="V252" s="31"/>
     </row>
     <row r="253" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A253" s="45"/>
-      <c r="B253" s="45"/>
+      <c r="A253" s="44"/>
+      <c r="B253" s="44"/>
       <c r="C253" s="28" t="s">
         <v>36</v>
       </c>
@@ -9243,10 +9309,10 @@
       <c r="V253" s="31"/>
     </row>
     <row r="254" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A254" s="46" t="s">
+      <c r="A254" s="45" t="s">
         <v>106</v>
       </c>
-      <c r="B254" s="46">
+      <c r="B254" s="45">
         <v>3800</v>
       </c>
       <c r="C254" s="30" t="s">
@@ -9285,8 +9351,8 @@
       <c r="V254" s="31"/>
     </row>
     <row r="255" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A255" s="44"/>
-      <c r="B255" s="44"/>
+      <c r="A255" s="43"/>
+      <c r="B255" s="43"/>
       <c r="C255" s="30" t="s">
         <v>10</v>
       </c>
@@ -9323,8 +9389,8 @@
       <c r="V255" s="31"/>
     </row>
     <row r="256" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A256" s="44"/>
-      <c r="B256" s="44"/>
+      <c r="A256" s="43"/>
+      <c r="B256" s="43"/>
       <c r="C256" s="30" t="s">
         <v>11</v>
       </c>
@@ -9361,8 +9427,8 @@
       <c r="V256" s="31"/>
     </row>
     <row r="257" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A257" s="44"/>
-      <c r="B257" s="44"/>
+      <c r="A257" s="43"/>
+      <c r="B257" s="43"/>
       <c r="C257" s="30" t="s">
         <v>63</v>
       </c>
@@ -9399,8 +9465,8 @@
       <c r="V257" s="31"/>
     </row>
     <row r="258" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A258" s="45"/>
-      <c r="B258" s="45"/>
+      <c r="A258" s="44"/>
+      <c r="B258" s="44"/>
       <c r="C258" s="30" t="s">
         <v>55</v>
       </c>
@@ -9437,10 +9503,10 @@
       <c r="V258" s="31"/>
     </row>
     <row r="259" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A259" s="48" t="s">
+      <c r="A259" s="42" t="s">
         <v>107</v>
       </c>
-      <c r="B259" s="48">
+      <c r="B259" s="42">
         <v>3800</v>
       </c>
       <c r="C259" s="28" t="s">
@@ -9479,8 +9545,8 @@
       <c r="V259" s="31"/>
     </row>
     <row r="260" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A260" s="44"/>
-      <c r="B260" s="44"/>
+      <c r="A260" s="43"/>
+      <c r="B260" s="43"/>
       <c r="C260" s="28" t="s">
         <v>10</v>
       </c>
@@ -9517,8 +9583,8 @@
       <c r="V260" s="31"/>
     </row>
     <row r="261" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A261" s="44"/>
-      <c r="B261" s="44"/>
+      <c r="A261" s="43"/>
+      <c r="B261" s="43"/>
       <c r="C261" s="28" t="s">
         <v>11</v>
       </c>
@@ -9555,8 +9621,8 @@
       <c r="V261" s="31"/>
     </row>
     <row r="262" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A262" s="44"/>
-      <c r="B262" s="44"/>
+      <c r="A262" s="43"/>
+      <c r="B262" s="43"/>
       <c r="C262" s="28" t="s">
         <v>63</v>
       </c>
@@ -9593,8 +9659,8 @@
       <c r="V262" s="31"/>
     </row>
     <row r="263" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A263" s="45"/>
-      <c r="B263" s="45"/>
+      <c r="A263" s="44"/>
+      <c r="B263" s="44"/>
       <c r="C263" s="35" t="s">
         <v>55</v>
       </c>
@@ -9631,10 +9697,10 @@
       <c r="V263" s="31"/>
     </row>
     <row r="264" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A264" s="46" t="s">
+      <c r="A264" s="45" t="s">
         <v>108</v>
       </c>
-      <c r="B264" s="46">
+      <c r="B264" s="45">
         <v>4300</v>
       </c>
       <c r="C264" s="23" t="s">
@@ -9673,8 +9739,8 @@
       <c r="V264" s="20"/>
     </row>
     <row r="265" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A265" s="45"/>
-      <c r="B265" s="45"/>
+      <c r="A265" s="44"/>
+      <c r="B265" s="44"/>
       <c r="C265" s="23" t="s">
         <v>10</v>
       </c>
@@ -9711,10 +9777,10 @@
       <c r="V265" s="20"/>
     </row>
     <row r="266" spans="1:22" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A266" s="48" t="s">
+      <c r="A266" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="B266" s="48">
+      <c r="B266" s="42">
         <v>4300</v>
       </c>
       <c r="C266" s="21" t="s">
@@ -9753,8 +9819,8 @@
       <c r="V266" s="20"/>
     </row>
     <row r="267" spans="1:22" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A267" s="44"/>
-      <c r="B267" s="44"/>
+      <c r="A267" s="43"/>
+      <c r="B267" s="43"/>
       <c r="C267" s="21" t="s">
         <v>18</v>
       </c>
@@ -9791,8 +9857,8 @@
       <c r="V267" s="20"/>
     </row>
     <row r="268" spans="1:22" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A268" s="44"/>
-      <c r="B268" s="44"/>
+      <c r="A268" s="43"/>
+      <c r="B268" s="43"/>
       <c r="C268" s="21" t="s">
         <v>10</v>
       </c>
@@ -9829,8 +9895,8 @@
       <c r="V268" s="20"/>
     </row>
     <row r="269" spans="1:22" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A269" s="44"/>
-      <c r="B269" s="44"/>
+      <c r="A269" s="43"/>
+      <c r="B269" s="43"/>
       <c r="C269" s="21" t="s">
         <v>19</v>
       </c>
@@ -9867,8 +9933,8 @@
       <c r="V269" s="20"/>
     </row>
     <row r="270" spans="1:22" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A270" s="45"/>
-      <c r="B270" s="45"/>
+      <c r="A270" s="44"/>
+      <c r="B270" s="44"/>
       <c r="C270" s="21" t="s">
         <v>110</v>
       </c>
@@ -9905,10 +9971,10 @@
       <c r="V270" s="20"/>
     </row>
     <row r="271" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A271" s="46" t="s">
+      <c r="A271" s="45" t="s">
         <v>111</v>
       </c>
-      <c r="B271" s="46">
+      <c r="B271" s="45">
         <v>4300</v>
       </c>
       <c r="C271" s="23" t="s">
@@ -9947,8 +10013,8 @@
       <c r="V271" s="20"/>
     </row>
     <row r="272" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A272" s="44"/>
-      <c r="B272" s="44"/>
+      <c r="A272" s="43"/>
+      <c r="B272" s="43"/>
       <c r="C272" s="23" t="s">
         <v>10</v>
       </c>
@@ -9985,8 +10051,8 @@
       <c r="V272" s="20"/>
     </row>
     <row r="273" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A273" s="44"/>
-      <c r="B273" s="44"/>
+      <c r="A273" s="43"/>
+      <c r="B273" s="43"/>
       <c r="C273" s="23" t="s">
         <v>18</v>
       </c>
@@ -10023,8 +10089,8 @@
       <c r="V273" s="20"/>
     </row>
     <row r="274" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A274" s="45"/>
-      <c r="B274" s="45"/>
+      <c r="A274" s="44"/>
+      <c r="B274" s="44"/>
       <c r="C274" s="23" t="s">
         <v>12</v>
       </c>
@@ -10061,10 +10127,10 @@
       <c r="V274" s="20"/>
     </row>
     <row r="275" spans="1:22" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A275" s="48" t="s">
+      <c r="A275" s="42" t="s">
         <v>112</v>
       </c>
-      <c r="B275" s="48">
+      <c r="B275" s="42">
         <v>4300</v>
       </c>
       <c r="C275" s="21" t="s">
@@ -10103,8 +10169,8 @@
       <c r="V275" s="20"/>
     </row>
     <row r="276" spans="1:22" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A276" s="44"/>
-      <c r="B276" s="44"/>
+      <c r="A276" s="43"/>
+      <c r="B276" s="43"/>
       <c r="C276" s="21" t="s">
         <v>44</v>
       </c>
@@ -10141,8 +10207,8 @@
       <c r="V276" s="20"/>
     </row>
     <row r="277" spans="1:22" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A277" s="45"/>
-      <c r="B277" s="45"/>
+      <c r="A277" s="44"/>
+      <c r="B277" s="44"/>
       <c r="C277" s="21" t="s">
         <v>19</v>
       </c>
@@ -10179,10 +10245,10 @@
       <c r="V277" s="20"/>
     </row>
     <row r="278" spans="1:22" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A278" s="46" t="s">
+      <c r="A278" s="45" t="s">
         <v>113</v>
       </c>
-      <c r="B278" s="46">
+      <c r="B278" s="45">
         <v>3900</v>
       </c>
       <c r="C278" s="36" t="s">
@@ -10221,8 +10287,8 @@
       <c r="V278" s="20"/>
     </row>
     <row r="279" spans="1:22" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A279" s="44"/>
-      <c r="B279" s="44"/>
+      <c r="A279" s="43"/>
+      <c r="B279" s="43"/>
       <c r="C279" s="36" t="s">
         <v>10</v>
       </c>
@@ -10259,8 +10325,8 @@
       <c r="V279" s="20"/>
     </row>
     <row r="280" spans="1:22" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A280" s="45"/>
-      <c r="B280" s="45"/>
+      <c r="A280" s="44"/>
+      <c r="B280" s="44"/>
       <c r="C280" s="36" t="s">
         <v>15</v>
       </c>
@@ -10297,10 +10363,10 @@
       <c r="V280" s="20"/>
     </row>
     <row r="281" spans="1:22" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A281" s="48" t="s">
+      <c r="A281" s="42" t="s">
         <v>114</v>
       </c>
-      <c r="B281" s="48">
+      <c r="B281" s="42">
         <v>3900</v>
       </c>
       <c r="C281" s="37" t="s">
@@ -10339,8 +10405,8 @@
       <c r="V281" s="20"/>
     </row>
     <row r="282" spans="1:22" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A282" s="44"/>
-      <c r="B282" s="44"/>
+      <c r="A282" s="43"/>
+      <c r="B282" s="43"/>
       <c r="C282" s="37" t="s">
         <v>48</v>
       </c>
@@ -10377,8 +10443,8 @@
       <c r="V282" s="20"/>
     </row>
     <row r="283" spans="1:22" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A283" s="44"/>
-      <c r="B283" s="44"/>
+      <c r="A283" s="43"/>
+      <c r="B283" s="43"/>
       <c r="C283" s="37" t="s">
         <v>74</v>
       </c>
@@ -10415,8 +10481,8 @@
       <c r="V283" s="20"/>
     </row>
     <row r="284" spans="1:22" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A284" s="45"/>
-      <c r="B284" s="45"/>
+      <c r="A284" s="44"/>
+      <c r="B284" s="44"/>
       <c r="C284" s="38" t="s">
         <v>10</v>
       </c>
@@ -10453,10 +10519,10 @@
       <c r="V284" s="20"/>
     </row>
     <row r="285" spans="1:22" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A285" s="46" t="s">
+      <c r="A285" s="45" t="s">
         <v>115</v>
       </c>
-      <c r="B285" s="46">
+      <c r="B285" s="45">
         <v>3900</v>
       </c>
       <c r="C285" s="39" t="s">
@@ -10495,8 +10561,8 @@
       <c r="V285" s="20"/>
     </row>
     <row r="286" spans="1:22" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A286" s="44"/>
-      <c r="B286" s="44"/>
+      <c r="A286" s="43"/>
+      <c r="B286" s="43"/>
       <c r="C286" s="39" t="s">
         <v>74</v>
       </c>
@@ -10533,8 +10599,8 @@
       <c r="V286" s="20"/>
     </row>
     <row r="287" spans="1:22" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A287" s="45"/>
-      <c r="B287" s="45"/>
+      <c r="A287" s="44"/>
+      <c r="B287" s="44"/>
       <c r="C287" s="39" t="s">
         <v>10</v>
       </c>
@@ -10571,10 +10637,10 @@
       <c r="V287" s="20"/>
     </row>
     <row r="288" spans="1:22" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A288" s="48" t="s">
+      <c r="A288" s="42" t="s">
         <v>116</v>
       </c>
-      <c r="B288" s="48">
+      <c r="B288" s="42">
         <v>3900</v>
       </c>
       <c r="C288" s="21" t="s">
@@ -10613,8 +10679,8 @@
       <c r="V288" s="20"/>
     </row>
     <row r="289" spans="1:22" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A289" s="44"/>
-      <c r="B289" s="44"/>
+      <c r="A289" s="43"/>
+      <c r="B289" s="43"/>
       <c r="C289" s="21" t="s">
         <v>10</v>
       </c>
@@ -10651,8 +10717,8 @@
       <c r="V289" s="20"/>
     </row>
     <row r="290" spans="1:22" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A290" s="44"/>
-      <c r="B290" s="44"/>
+      <c r="A290" s="43"/>
+      <c r="B290" s="43"/>
       <c r="C290" s="21" t="s">
         <v>48</v>
       </c>
@@ -10689,8 +10755,8 @@
       <c r="V290" s="20"/>
     </row>
     <row r="291" spans="1:22" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A291" s="45"/>
-      <c r="B291" s="45"/>
+      <c r="A291" s="44"/>
+      <c r="B291" s="44"/>
       <c r="C291" s="21" t="s">
         <v>19</v>
       </c>
@@ -10727,10 +10793,10 @@
       <c r="V291" s="20"/>
     </row>
     <row r="292" spans="1:22" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A292" s="46" t="s">
+      <c r="A292" s="45" t="s">
         <v>117</v>
       </c>
-      <c r="B292" s="46">
+      <c r="B292" s="45">
         <v>3900</v>
       </c>
       <c r="C292" s="23" t="s">
@@ -10769,8 +10835,8 @@
       <c r="V292" s="20"/>
     </row>
     <row r="293" spans="1:22" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A293" s="44"/>
-      <c r="B293" s="44"/>
+      <c r="A293" s="43"/>
+      <c r="B293" s="43"/>
       <c r="C293" s="23" t="s">
         <v>118</v>
       </c>
@@ -10807,8 +10873,8 @@
       <c r="V293" s="20"/>
     </row>
     <row r="294" spans="1:22" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A294" s="44"/>
-      <c r="B294" s="44"/>
+      <c r="A294" s="43"/>
+      <c r="B294" s="43"/>
       <c r="C294" s="23" t="s">
         <v>48</v>
       </c>
@@ -10845,8 +10911,8 @@
       <c r="V294" s="20"/>
     </row>
     <row r="295" spans="1:22" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A295" s="44"/>
-      <c r="B295" s="44"/>
+      <c r="A295" s="43"/>
+      <c r="B295" s="43"/>
       <c r="C295" s="23" t="s">
         <v>37</v>
       </c>
@@ -10883,8 +10949,8 @@
       <c r="V295" s="20"/>
     </row>
     <row r="296" spans="1:22" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A296" s="45"/>
-      <c r="B296" s="45"/>
+      <c r="A296" s="44"/>
+      <c r="B296" s="44"/>
       <c r="C296" s="23" t="s">
         <v>9</v>
       </c>
@@ -10921,10 +10987,10 @@
       <c r="V296" s="20"/>
     </row>
     <row r="297" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A297" s="48" t="s">
+      <c r="A297" s="42" t="s">
         <v>119</v>
       </c>
-      <c r="B297" s="48">
+      <c r="B297" s="42">
         <v>3900</v>
       </c>
       <c r="C297" s="21" t="s">
@@ -10963,8 +11029,8 @@
       <c r="V297" s="20"/>
     </row>
     <row r="298" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A298" s="44"/>
-      <c r="B298" s="44"/>
+      <c r="A298" s="43"/>
+      <c r="B298" s="43"/>
       <c r="C298" s="21" t="s">
         <v>19</v>
       </c>
@@ -11001,8 +11067,8 @@
       <c r="V298" s="20"/>
     </row>
     <row r="299" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A299" s="44"/>
-      <c r="B299" s="44"/>
+      <c r="A299" s="43"/>
+      <c r="B299" s="43"/>
       <c r="C299" s="21" t="s">
         <v>16</v>
       </c>
@@ -11039,8 +11105,8 @@
       <c r="V299" s="20"/>
     </row>
     <row r="300" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A300" s="44"/>
-      <c r="B300" s="44"/>
+      <c r="A300" s="43"/>
+      <c r="B300" s="43"/>
       <c r="C300" s="21" t="s">
         <v>48</v>
       </c>
@@ -11077,8 +11143,8 @@
       <c r="V300" s="20"/>
     </row>
     <row r="301" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A301" s="45"/>
-      <c r="B301" s="45"/>
+      <c r="A301" s="44"/>
+      <c r="B301" s="44"/>
       <c r="C301" s="21" t="s">
         <v>59</v>
       </c>
@@ -11115,10 +11181,10 @@
       <c r="V301" s="20"/>
     </row>
     <row r="302" spans="1:22" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A302" s="46" t="s">
+      <c r="A302" s="45" t="s">
         <v>120</v>
       </c>
-      <c r="B302" s="46">
+      <c r="B302" s="45">
         <v>3900</v>
       </c>
       <c r="C302" s="23" t="s">
@@ -11157,8 +11223,8 @@
       <c r="V302" s="20"/>
     </row>
     <row r="303" spans="1:22" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A303" s="44"/>
-      <c r="B303" s="44"/>
+      <c r="A303" s="43"/>
+      <c r="B303" s="43"/>
       <c r="C303" s="23" t="s">
         <v>48</v>
       </c>
@@ -11195,8 +11261,8 @@
       <c r="V303" s="20"/>
     </row>
     <row r="304" spans="1:22" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A304" s="45"/>
-      <c r="B304" s="45"/>
+      <c r="A304" s="44"/>
+      <c r="B304" s="44"/>
       <c r="C304" s="23" t="s">
         <v>19</v>
       </c>
@@ -11233,10 +11299,10 @@
       <c r="V304" s="20"/>
     </row>
     <row r="305" spans="1:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A305" s="48">
+      <c r="A305" s="42">
         <v>1079</v>
       </c>
-      <c r="B305" s="48">
+      <c r="B305" s="42">
         <v>4500</v>
       </c>
       <c r="C305" s="21" t="s">
@@ -11275,8 +11341,8 @@
       <c r="V305" s="20"/>
     </row>
     <row r="306" spans="1:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A306" s="44"/>
-      <c r="B306" s="44"/>
+      <c r="A306" s="43"/>
+      <c r="B306" s="43"/>
       <c r="C306" s="21" t="s">
         <v>19</v>
       </c>
@@ -11313,8 +11379,8 @@
       <c r="V306" s="20"/>
     </row>
     <row r="307" spans="1:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A307" s="45"/>
-      <c r="B307" s="45"/>
+      <c r="A307" s="44"/>
+      <c r="B307" s="44"/>
       <c r="C307" s="11" t="s">
         <v>11</v>
       </c>
@@ -11351,10 +11417,10 @@
       <c r="V307" s="20"/>
     </row>
     <row r="308" spans="1:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A308" s="51" t="s">
+      <c r="A308" s="49" t="s">
         <v>121</v>
       </c>
-      <c r="B308" s="51" t="s">
+      <c r="B308" s="49" t="s">
         <v>122</v>
       </c>
       <c r="C308" s="23" t="s">
@@ -11393,8 +11459,8 @@
       <c r="V308" s="20"/>
     </row>
     <row r="309" spans="1:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A309" s="44"/>
-      <c r="B309" s="44"/>
+      <c r="A309" s="43"/>
+      <c r="B309" s="43"/>
       <c r="C309" s="5" t="s">
         <v>11</v>
       </c>
@@ -11431,8 +11497,8 @@
       <c r="V309" s="20"/>
     </row>
     <row r="310" spans="1:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A310" s="44"/>
-      <c r="B310" s="44"/>
+      <c r="A310" s="43"/>
+      <c r="B310" s="43"/>
       <c r="C310" s="23" t="s">
         <v>118</v>
       </c>
@@ -11469,8 +11535,8 @@
       <c r="V310" s="20"/>
     </row>
     <row r="311" spans="1:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A311" s="45"/>
-      <c r="B311" s="45"/>
+      <c r="A311" s="44"/>
+      <c r="B311" s="44"/>
       <c r="C311" s="23" t="s">
         <v>19</v>
       </c>
@@ -11507,10 +11573,10 @@
       <c r="V311" s="20"/>
     </row>
     <row r="312" spans="1:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A312" s="48" t="s">
+      <c r="A312" s="42" t="s">
         <v>123</v>
       </c>
-      <c r="B312" s="48">
+      <c r="B312" s="42">
         <v>3900</v>
       </c>
       <c r="C312" s="21" t="s">
@@ -11549,8 +11615,8 @@
       <c r="V312" s="20"/>
     </row>
     <row r="313" spans="1:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A313" s="44"/>
-      <c r="B313" s="44"/>
+      <c r="A313" s="43"/>
+      <c r="B313" s="43"/>
       <c r="C313" s="21" t="s">
         <v>37</v>
       </c>
@@ -11587,8 +11653,8 @@
       <c r="V313" s="20"/>
     </row>
     <row r="314" spans="1:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A314" s="44"/>
-      <c r="B314" s="44"/>
+      <c r="A314" s="43"/>
+      <c r="B314" s="43"/>
       <c r="C314" s="21" t="s">
         <v>36</v>
       </c>
@@ -11625,8 +11691,8 @@
       <c r="V314" s="20"/>
     </row>
     <row r="315" spans="1:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A315" s="45"/>
-      <c r="B315" s="45"/>
+      <c r="A315" s="44"/>
+      <c r="B315" s="44"/>
       <c r="C315" s="21" t="s">
         <v>38</v>
       </c>
@@ -11663,10 +11729,10 @@
       <c r="V315" s="20"/>
     </row>
     <row r="316" spans="1:22" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A316" s="46" t="s">
+      <c r="A316" s="45" t="s">
         <v>124</v>
       </c>
-      <c r="B316" s="46">
+      <c r="B316" s="45">
         <v>4200</v>
       </c>
       <c r="C316" s="23" t="s">
@@ -11705,8 +11771,8 @@
       <c r="V316" s="20"/>
     </row>
     <row r="317" spans="1:22" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A317" s="44"/>
-      <c r="B317" s="44"/>
+      <c r="A317" s="43"/>
+      <c r="B317" s="43"/>
       <c r="C317" s="23" t="s">
         <v>10</v>
       </c>
@@ -11743,8 +11809,8 @@
       <c r="V317" s="20"/>
     </row>
     <row r="318" spans="1:22" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A318" s="45"/>
-      <c r="B318" s="45"/>
+      <c r="A318" s="44"/>
+      <c r="B318" s="44"/>
       <c r="C318" s="23" t="s">
         <v>11</v>
       </c>
@@ -11781,10 +11847,10 @@
       <c r="V318" s="20"/>
     </row>
     <row r="319" spans="1:22" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A319" s="48" t="s">
+      <c r="A319" s="42" t="s">
         <v>125</v>
       </c>
-      <c r="B319" s="48">
+      <c r="B319" s="42">
         <v>4200</v>
       </c>
       <c r="C319" s="21" t="s">
@@ -11823,8 +11889,8 @@
       <c r="V319" s="20"/>
     </row>
     <row r="320" spans="1:22" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A320" s="44"/>
-      <c r="B320" s="44"/>
+      <c r="A320" s="43"/>
+      <c r="B320" s="43"/>
       <c r="C320" s="21" t="s">
         <v>10</v>
       </c>
@@ -11861,8 +11927,8 @@
       <c r="V320" s="20"/>
     </row>
     <row r="321" spans="1:22" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A321" s="45"/>
-      <c r="B321" s="45"/>
+      <c r="A321" s="44"/>
+      <c r="B321" s="44"/>
       <c r="C321" s="21" t="s">
         <v>11</v>
       </c>
@@ -11899,10 +11965,10 @@
       <c r="V321" s="20"/>
     </row>
     <row r="322" spans="1:22" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A322" s="46" t="s">
+      <c r="A322" s="45" t="s">
         <v>126</v>
       </c>
-      <c r="B322" s="46">
+      <c r="B322" s="45">
         <v>4500</v>
       </c>
       <c r="C322" s="23" t="s">
@@ -11941,8 +12007,8 @@
       <c r="V322" s="20"/>
     </row>
     <row r="323" spans="1:22" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A323" s="44"/>
-      <c r="B323" s="44"/>
+      <c r="A323" s="43"/>
+      <c r="B323" s="43"/>
       <c r="C323" s="23" t="s">
         <v>10</v>
       </c>
@@ -11979,8 +12045,8 @@
       <c r="V323" s="20"/>
     </row>
     <row r="324" spans="1:22" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A324" s="45"/>
-      <c r="B324" s="45"/>
+      <c r="A324" s="44"/>
+      <c r="B324" s="44"/>
       <c r="C324" s="23" t="s">
         <v>11</v>
       </c>
@@ -12017,10 +12083,10 @@
       <c r="V324" s="20"/>
     </row>
     <row r="325" spans="1:22" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A325" s="48" t="s">
+      <c r="A325" s="42" t="s">
         <v>127</v>
       </c>
-      <c r="B325" s="48">
+      <c r="B325" s="42">
         <v>4500</v>
       </c>
       <c r="C325" s="21" t="s">
@@ -12059,8 +12125,8 @@
       <c r="V325" s="20"/>
     </row>
     <row r="326" spans="1:22" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A326" s="44"/>
-      <c r="B326" s="44"/>
+      <c r="A326" s="43"/>
+      <c r="B326" s="43"/>
       <c r="C326" s="21" t="s">
         <v>10</v>
       </c>
@@ -12097,8 +12163,8 @@
       <c r="V326" s="20"/>
     </row>
     <row r="327" spans="1:22" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A327" s="45"/>
-      <c r="B327" s="45"/>
+      <c r="A327" s="44"/>
+      <c r="B327" s="44"/>
       <c r="C327" s="21" t="s">
         <v>11</v>
       </c>
@@ -12135,15 +12201,33 @@
       <c r="V327" s="20"/>
     </row>
     <row r="328" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A328" s="49"/>
-      <c r="B328" s="50"/>
-      <c r="C328" s="40"/>
-      <c r="D328" s="41"/>
-      <c r="E328" s="13"/>
-      <c r="F328" s="41"/>
-      <c r="G328" s="41"/>
-      <c r="H328" s="13"/>
-      <c r="I328" s="41"/>
+      <c r="A328" s="42" t="s">
+        <v>144</v>
+      </c>
+      <c r="B328" s="42">
+        <v>4500</v>
+      </c>
+      <c r="C328" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="D328" s="13">
+        <v>1</v>
+      </c>
+      <c r="E328" s="13">
+        <v>2</v>
+      </c>
+      <c r="F328" s="13">
+        <v>3</v>
+      </c>
+      <c r="G328" s="13">
+        <v>3</v>
+      </c>
+      <c r="H328" s="13">
+        <v>2</v>
+      </c>
+      <c r="I328" s="13">
+        <v>1</v>
+      </c>
       <c r="J328" s="20"/>
       <c r="K328" s="20"/>
       <c r="L328" s="20"/>
@@ -12159,1901 +12243,2032 @@
       <c r="V328" s="20"/>
     </row>
     <row r="329" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C329" s="42"/>
+      <c r="A329" s="43"/>
+      <c r="B329" s="43"/>
+      <c r="C329" s="53" t="s">
+        <v>129</v>
+      </c>
+      <c r="D329" s="13">
+        <v>1</v>
+      </c>
+      <c r="E329" s="13">
+        <v>2</v>
+      </c>
+      <c r="F329" s="13">
+        <v>3</v>
+      </c>
+      <c r="G329" s="13">
+        <v>3</v>
+      </c>
+      <c r="H329" s="13">
+        <v>2</v>
+      </c>
+      <c r="I329" s="13">
+        <v>1</v>
+      </c>
+      <c r="J329" s="20"/>
     </row>
     <row r="330" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C330" s="42"/>
+      <c r="A330" s="44"/>
+      <c r="B330" s="44"/>
+      <c r="C330" s="53" t="s">
+        <v>130</v>
+      </c>
+      <c r="D330" s="13">
+        <v>1</v>
+      </c>
+      <c r="E330" s="13">
+        <v>2</v>
+      </c>
+      <c r="F330" s="13">
+        <v>3</v>
+      </c>
+      <c r="G330" s="13">
+        <v>3</v>
+      </c>
+      <c r="H330" s="13">
+        <v>2</v>
+      </c>
+      <c r="I330" s="13">
+        <v>1</v>
+      </c>
+      <c r="J330" s="20"/>
     </row>
     <row r="331" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C331" s="42"/>
+      <c r="A331" t="s">
+        <v>144</v>
+      </c>
+      <c r="C331" s="53" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="332" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C332" s="42"/>
+      <c r="C332" s="53" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="333" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C333" s="42"/>
+      <c r="C333" s="53" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="334" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C334" s="42"/>
+      <c r="C334" s="53" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="335" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C335" s="42"/>
+      <c r="C335" s="53" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="336" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C336" s="42"/>
+      <c r="C336" s="53" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="337" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C337" s="42"/>
+      <c r="C337" s="53" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="338" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C338" s="42"/>
+      <c r="C338" s="53" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="339" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C339" s="42"/>
+      <c r="C339" s="53" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="340" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C340" s="42"/>
+      <c r="C340" s="53" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="341" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C341" s="42"/>
+      <c r="C341" s="53" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="342" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C342" s="42"/>
+      <c r="C342" s="53" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="343" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C343" s="42"/>
+      <c r="C343" s="53" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="344" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C344" s="42"/>
+      <c r="C344" s="40"/>
     </row>
     <row r="345" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C345" s="42"/>
+      <c r="C345" s="40"/>
     </row>
     <row r="346" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C346" s="42"/>
+      <c r="C346" s="40"/>
     </row>
     <row r="347" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C347" s="42"/>
+      <c r="C347" s="40"/>
     </row>
     <row r="348" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C348" s="42"/>
+      <c r="C348" s="40"/>
     </row>
     <row r="349" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C349" s="42"/>
+      <c r="C349" s="40"/>
     </row>
     <row r="350" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C350" s="42"/>
+      <c r="C350" s="40"/>
     </row>
     <row r="351" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C351" s="42"/>
+      <c r="C351" s="40"/>
     </row>
     <row r="352" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C352" s="42"/>
+      <c r="C352" s="40"/>
     </row>
     <row r="353" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C353" s="42"/>
+      <c r="C353" s="40"/>
     </row>
     <row r="354" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C354" s="42"/>
+      <c r="C354" s="40"/>
     </row>
     <row r="355" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C355" s="42"/>
+      <c r="C355" s="40"/>
     </row>
     <row r="356" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C356" s="42"/>
+      <c r="C356" s="40"/>
     </row>
     <row r="357" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C357" s="42"/>
+      <c r="C357" s="40"/>
     </row>
     <row r="358" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C358" s="42"/>
+      <c r="C358" s="40"/>
     </row>
     <row r="359" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C359" s="42"/>
+      <c r="C359" s="40"/>
     </row>
     <row r="360" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C360" s="42"/>
+      <c r="C360" s="40"/>
     </row>
     <row r="361" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C361" s="42"/>
+      <c r="C361" s="40"/>
     </row>
     <row r="362" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C362" s="42"/>
+      <c r="C362" s="40"/>
     </row>
     <row r="363" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C363" s="42"/>
+      <c r="C363" s="40"/>
     </row>
     <row r="364" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C364" s="42"/>
+      <c r="C364" s="40"/>
     </row>
     <row r="365" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C365" s="42"/>
+      <c r="C365" s="40"/>
     </row>
     <row r="366" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C366" s="42"/>
+      <c r="C366" s="40"/>
     </row>
     <row r="367" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C367" s="42"/>
+      <c r="C367" s="40"/>
     </row>
     <row r="368" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C368" s="42"/>
+      <c r="C368" s="40"/>
     </row>
     <row r="369" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C369" s="42"/>
+      <c r="C369" s="40"/>
     </row>
     <row r="370" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C370" s="42"/>
+      <c r="C370" s="40"/>
     </row>
     <row r="371" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C371" s="42"/>
+      <c r="C371" s="40"/>
     </row>
     <row r="372" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C372" s="42"/>
+      <c r="C372" s="40"/>
     </row>
     <row r="373" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C373" s="42"/>
+      <c r="C373" s="40"/>
     </row>
     <row r="374" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C374" s="42"/>
+      <c r="C374" s="40"/>
     </row>
     <row r="375" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C375" s="42"/>
+      <c r="C375" s="40"/>
     </row>
     <row r="376" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C376" s="42"/>
+      <c r="C376" s="40"/>
     </row>
     <row r="377" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C377" s="42"/>
+      <c r="C377" s="40"/>
     </row>
     <row r="378" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C378" s="42"/>
+      <c r="C378" s="40"/>
     </row>
     <row r="379" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C379" s="42"/>
+      <c r="C379" s="40"/>
     </row>
     <row r="380" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C380" s="42"/>
+      <c r="C380" s="40"/>
     </row>
     <row r="381" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C381" s="42"/>
+      <c r="C381" s="40"/>
     </row>
     <row r="382" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C382" s="42"/>
+      <c r="C382" s="40"/>
     </row>
     <row r="383" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C383" s="42"/>
+      <c r="C383" s="40"/>
     </row>
     <row r="384" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C384" s="42"/>
+      <c r="C384" s="40"/>
     </row>
     <row r="385" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C385" s="42"/>
+      <c r="C385" s="40"/>
     </row>
     <row r="386" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C386" s="42"/>
+      <c r="C386" s="40"/>
     </row>
     <row r="387" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C387" s="42"/>
+      <c r="C387" s="40"/>
     </row>
     <row r="388" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C388" s="42"/>
+      <c r="C388" s="40"/>
     </row>
     <row r="389" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C389" s="42"/>
+      <c r="C389" s="40"/>
     </row>
     <row r="390" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C390" s="42"/>
+      <c r="C390" s="40"/>
     </row>
     <row r="391" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C391" s="42"/>
+      <c r="C391" s="40"/>
     </row>
     <row r="392" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C392" s="42"/>
+      <c r="C392" s="40"/>
     </row>
     <row r="393" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C393" s="42"/>
+      <c r="C393" s="40"/>
     </row>
     <row r="394" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C394" s="42"/>
+      <c r="C394" s="40"/>
     </row>
     <row r="395" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C395" s="42"/>
+      <c r="C395" s="40"/>
     </row>
     <row r="396" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C396" s="42"/>
+      <c r="C396" s="40"/>
     </row>
     <row r="397" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C397" s="42"/>
+      <c r="C397" s="40"/>
     </row>
     <row r="398" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C398" s="42"/>
+      <c r="C398" s="40"/>
     </row>
     <row r="399" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C399" s="42"/>
+      <c r="C399" s="40"/>
     </row>
     <row r="400" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C400" s="42"/>
+      <c r="C400" s="40"/>
     </row>
     <row r="401" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C401" s="42"/>
+      <c r="C401" s="40"/>
     </row>
     <row r="402" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C402" s="42"/>
+      <c r="C402" s="40"/>
     </row>
     <row r="403" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C403" s="42"/>
+      <c r="C403" s="40"/>
     </row>
     <row r="404" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C404" s="42"/>
+      <c r="C404" s="40"/>
     </row>
     <row r="405" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C405" s="42"/>
+      <c r="C405" s="40"/>
     </row>
     <row r="406" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C406" s="42"/>
+      <c r="C406" s="40"/>
     </row>
     <row r="407" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C407" s="42"/>
+      <c r="C407" s="40"/>
     </row>
     <row r="408" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C408" s="42"/>
+      <c r="C408" s="40"/>
     </row>
     <row r="409" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C409" s="42"/>
+      <c r="C409" s="40"/>
     </row>
     <row r="410" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C410" s="42"/>
+      <c r="C410" s="40"/>
     </row>
     <row r="411" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C411" s="42"/>
+      <c r="C411" s="40"/>
     </row>
     <row r="412" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C412" s="42"/>
+      <c r="C412" s="40"/>
     </row>
     <row r="413" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C413" s="42"/>
+      <c r="C413" s="40"/>
     </row>
     <row r="414" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C414" s="42"/>
+      <c r="C414" s="40"/>
     </row>
     <row r="415" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C415" s="42"/>
+      <c r="C415" s="40"/>
     </row>
     <row r="416" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C416" s="42"/>
+      <c r="C416" s="40"/>
     </row>
     <row r="417" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C417" s="42"/>
+      <c r="C417" s="40"/>
     </row>
     <row r="418" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C418" s="42"/>
+      <c r="C418" s="40"/>
     </row>
     <row r="419" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C419" s="42"/>
+      <c r="C419" s="40"/>
     </row>
     <row r="420" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C420" s="42"/>
+      <c r="C420" s="40"/>
     </row>
     <row r="421" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C421" s="42"/>
+      <c r="C421" s="40"/>
     </row>
     <row r="422" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C422" s="42"/>
+      <c r="C422" s="40"/>
     </row>
     <row r="423" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C423" s="42"/>
+      <c r="C423" s="40"/>
     </row>
     <row r="424" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C424" s="42"/>
+      <c r="C424" s="40"/>
     </row>
     <row r="425" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C425" s="42"/>
+      <c r="C425" s="40"/>
     </row>
     <row r="426" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C426" s="42"/>
+      <c r="C426" s="40"/>
     </row>
     <row r="427" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C427" s="42"/>
+      <c r="C427" s="40"/>
     </row>
     <row r="428" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C428" s="42"/>
+      <c r="C428" s="40"/>
     </row>
     <row r="429" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C429" s="42"/>
+      <c r="C429" s="40"/>
     </row>
     <row r="430" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C430" s="42"/>
+      <c r="C430" s="40"/>
     </row>
     <row r="431" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C431" s="42"/>
+      <c r="C431" s="40"/>
     </row>
     <row r="432" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C432" s="42"/>
+      <c r="C432" s="40"/>
     </row>
     <row r="433" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C433" s="42"/>
+      <c r="C433" s="40"/>
     </row>
     <row r="434" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C434" s="42"/>
+      <c r="C434" s="40"/>
     </row>
     <row r="435" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C435" s="42"/>
+      <c r="C435" s="40"/>
     </row>
     <row r="436" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C436" s="42"/>
+      <c r="C436" s="40"/>
     </row>
     <row r="437" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C437" s="42"/>
+      <c r="C437" s="40"/>
     </row>
     <row r="438" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C438" s="42"/>
+      <c r="C438" s="40"/>
     </row>
     <row r="439" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C439" s="42"/>
+      <c r="C439" s="40"/>
     </row>
     <row r="440" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C440" s="42"/>
+      <c r="C440" s="40"/>
     </row>
     <row r="441" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C441" s="42"/>
+      <c r="C441" s="40"/>
     </row>
     <row r="442" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C442" s="42"/>
+      <c r="C442" s="40"/>
     </row>
     <row r="443" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C443" s="42"/>
+      <c r="C443" s="40"/>
     </row>
     <row r="444" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C444" s="42"/>
+      <c r="C444" s="40"/>
     </row>
     <row r="445" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C445" s="42"/>
+      <c r="C445" s="40"/>
     </row>
     <row r="446" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C446" s="42"/>
+      <c r="C446" s="40"/>
     </row>
     <row r="447" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C447" s="42"/>
+      <c r="C447" s="40"/>
     </row>
     <row r="448" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C448" s="42"/>
+      <c r="C448" s="40"/>
     </row>
     <row r="449" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C449" s="42"/>
+      <c r="C449" s="40"/>
     </row>
     <row r="450" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C450" s="42"/>
+      <c r="C450" s="40"/>
     </row>
     <row r="451" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C451" s="42"/>
+      <c r="C451" s="40"/>
     </row>
     <row r="452" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C452" s="42"/>
+      <c r="C452" s="40"/>
     </row>
     <row r="453" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C453" s="42"/>
+      <c r="C453" s="40"/>
     </row>
     <row r="454" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C454" s="42"/>
+      <c r="C454" s="40"/>
     </row>
     <row r="455" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C455" s="42"/>
+      <c r="C455" s="40"/>
     </row>
     <row r="456" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C456" s="42"/>
+      <c r="C456" s="40"/>
     </row>
     <row r="457" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C457" s="42"/>
+      <c r="C457" s="40"/>
     </row>
     <row r="458" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C458" s="42"/>
+      <c r="C458" s="40"/>
     </row>
     <row r="459" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C459" s="42"/>
+      <c r="C459" s="40"/>
     </row>
     <row r="460" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C460" s="42"/>
+      <c r="C460" s="40"/>
     </row>
     <row r="461" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C461" s="42"/>
+      <c r="C461" s="40"/>
     </row>
     <row r="462" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C462" s="42"/>
+      <c r="C462" s="40"/>
     </row>
     <row r="463" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C463" s="42"/>
+      <c r="C463" s="40"/>
     </row>
     <row r="464" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C464" s="42"/>
+      <c r="C464" s="40"/>
     </row>
     <row r="465" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C465" s="42"/>
+      <c r="C465" s="40"/>
     </row>
     <row r="466" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C466" s="42"/>
+      <c r="C466" s="40"/>
     </row>
     <row r="467" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C467" s="42"/>
+      <c r="C467" s="40"/>
     </row>
     <row r="468" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C468" s="42"/>
+      <c r="C468" s="40"/>
     </row>
     <row r="469" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C469" s="42"/>
+      <c r="C469" s="40"/>
     </row>
     <row r="470" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C470" s="42"/>
+      <c r="C470" s="40"/>
     </row>
     <row r="471" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C471" s="42"/>
+      <c r="C471" s="40"/>
     </row>
     <row r="472" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C472" s="42"/>
+      <c r="C472" s="40"/>
     </row>
     <row r="473" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C473" s="42"/>
+      <c r="C473" s="40"/>
     </row>
     <row r="474" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C474" s="42"/>
+      <c r="C474" s="40"/>
     </row>
     <row r="475" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C475" s="42"/>
+      <c r="C475" s="40"/>
     </row>
     <row r="476" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C476" s="42"/>
+      <c r="C476" s="40"/>
     </row>
     <row r="477" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C477" s="42"/>
+      <c r="C477" s="40"/>
     </row>
     <row r="478" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C478" s="42"/>
+      <c r="C478" s="40"/>
     </row>
     <row r="479" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C479" s="42"/>
+      <c r="C479" s="40"/>
     </row>
     <row r="480" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C480" s="42"/>
+      <c r="C480" s="40"/>
     </row>
     <row r="481" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C481" s="42"/>
+      <c r="C481" s="40"/>
     </row>
     <row r="482" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C482" s="42"/>
+      <c r="C482" s="40"/>
     </row>
     <row r="483" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C483" s="42"/>
+      <c r="C483" s="40"/>
     </row>
     <row r="484" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C484" s="42"/>
+      <c r="C484" s="40"/>
     </row>
     <row r="485" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C485" s="42"/>
+      <c r="C485" s="40"/>
     </row>
     <row r="486" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C486" s="42"/>
+      <c r="C486" s="40"/>
     </row>
     <row r="487" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C487" s="42"/>
+      <c r="C487" s="40"/>
     </row>
     <row r="488" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C488" s="42"/>
+      <c r="C488" s="40"/>
     </row>
     <row r="489" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C489" s="42"/>
+      <c r="C489" s="40"/>
     </row>
     <row r="490" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C490" s="42"/>
+      <c r="C490" s="40"/>
     </row>
     <row r="491" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C491" s="42"/>
+      <c r="C491" s="40"/>
     </row>
     <row r="492" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C492" s="42"/>
+      <c r="C492" s="40"/>
     </row>
     <row r="493" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C493" s="42"/>
+      <c r="C493" s="40"/>
     </row>
     <row r="494" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C494" s="42"/>
+      <c r="C494" s="40"/>
     </row>
     <row r="495" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C495" s="42"/>
+      <c r="C495" s="40"/>
     </row>
     <row r="496" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C496" s="42"/>
+      <c r="C496" s="40"/>
     </row>
     <row r="497" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C497" s="42"/>
+      <c r="C497" s="40"/>
     </row>
     <row r="498" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C498" s="42"/>
+      <c r="C498" s="40"/>
     </row>
     <row r="499" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C499" s="42"/>
+      <c r="C499" s="40"/>
     </row>
     <row r="500" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C500" s="42"/>
+      <c r="C500" s="40"/>
     </row>
     <row r="501" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C501" s="42"/>
+      <c r="C501" s="40"/>
     </row>
     <row r="502" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C502" s="42"/>
+      <c r="C502" s="40"/>
     </row>
     <row r="503" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C503" s="42"/>
+      <c r="C503" s="40"/>
     </row>
     <row r="504" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C504" s="42"/>
+      <c r="C504" s="40"/>
     </row>
     <row r="505" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C505" s="42"/>
+      <c r="C505" s="40"/>
     </row>
     <row r="506" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C506" s="42"/>
+      <c r="C506" s="40"/>
     </row>
     <row r="507" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C507" s="42"/>
+      <c r="C507" s="40"/>
     </row>
     <row r="508" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C508" s="42"/>
+      <c r="C508" s="40"/>
     </row>
     <row r="509" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C509" s="42"/>
+      <c r="C509" s="40"/>
     </row>
     <row r="510" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C510" s="42"/>
+      <c r="C510" s="40"/>
     </row>
     <row r="511" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C511" s="42"/>
+      <c r="C511" s="40"/>
     </row>
     <row r="512" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C512" s="42"/>
+      <c r="C512" s="40"/>
     </row>
     <row r="513" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C513" s="42"/>
+      <c r="C513" s="40"/>
     </row>
     <row r="514" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C514" s="42"/>
+      <c r="C514" s="40"/>
     </row>
     <row r="515" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C515" s="42"/>
+      <c r="C515" s="40"/>
     </row>
     <row r="516" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C516" s="42"/>
+      <c r="C516" s="40"/>
     </row>
     <row r="517" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C517" s="42"/>
+      <c r="C517" s="40"/>
     </row>
     <row r="518" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C518" s="42"/>
+      <c r="C518" s="40"/>
     </row>
     <row r="519" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C519" s="42"/>
+      <c r="C519" s="40"/>
     </row>
     <row r="520" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C520" s="42"/>
+      <c r="C520" s="40"/>
     </row>
     <row r="521" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C521" s="42"/>
+      <c r="C521" s="40"/>
     </row>
     <row r="522" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C522" s="42"/>
+      <c r="C522" s="40"/>
     </row>
     <row r="523" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C523" s="42"/>
+      <c r="C523" s="40"/>
     </row>
     <row r="524" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C524" s="42"/>
+      <c r="C524" s="40"/>
     </row>
     <row r="525" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C525" s="42"/>
+      <c r="C525" s="40"/>
     </row>
     <row r="526" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C526" s="42"/>
+      <c r="C526" s="40"/>
     </row>
     <row r="527" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C527" s="42"/>
+      <c r="C527" s="40"/>
     </row>
     <row r="528" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C528" s="42"/>
+      <c r="C528" s="40"/>
     </row>
     <row r="529" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C529" s="42"/>
+      <c r="C529" s="40"/>
     </row>
     <row r="530" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C530" s="42"/>
+      <c r="C530" s="40"/>
     </row>
     <row r="531" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C531" s="42"/>
+      <c r="C531" s="40"/>
     </row>
     <row r="532" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C532" s="42"/>
+      <c r="C532" s="40"/>
     </row>
     <row r="533" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C533" s="42"/>
+      <c r="C533" s="40"/>
     </row>
     <row r="534" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C534" s="42"/>
+      <c r="C534" s="40"/>
     </row>
     <row r="535" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C535" s="42"/>
+      <c r="C535" s="40"/>
     </row>
     <row r="536" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C536" s="42"/>
+      <c r="C536" s="40"/>
     </row>
     <row r="537" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C537" s="42"/>
+      <c r="C537" s="40"/>
     </row>
     <row r="538" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C538" s="42"/>
+      <c r="C538" s="40"/>
     </row>
     <row r="539" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C539" s="42"/>
+      <c r="C539" s="40"/>
     </row>
     <row r="540" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C540" s="42"/>
+      <c r="C540" s="40"/>
     </row>
     <row r="541" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C541" s="42"/>
+      <c r="C541" s="40"/>
     </row>
     <row r="542" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C542" s="42"/>
+      <c r="C542" s="40"/>
     </row>
     <row r="543" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C543" s="42"/>
+      <c r="C543" s="40"/>
     </row>
     <row r="544" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C544" s="42"/>
+      <c r="C544" s="40"/>
     </row>
     <row r="545" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C545" s="42"/>
+      <c r="C545" s="40"/>
     </row>
     <row r="546" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C546" s="42"/>
+      <c r="C546" s="40"/>
     </row>
     <row r="547" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C547" s="42"/>
+      <c r="C547" s="40"/>
     </row>
     <row r="548" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C548" s="42"/>
+      <c r="C548" s="40"/>
     </row>
     <row r="549" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C549" s="42"/>
+      <c r="C549" s="40"/>
     </row>
     <row r="550" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C550" s="42"/>
+      <c r="C550" s="40"/>
     </row>
     <row r="551" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C551" s="42"/>
+      <c r="C551" s="40"/>
     </row>
     <row r="552" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C552" s="42"/>
+      <c r="C552" s="40"/>
     </row>
     <row r="553" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C553" s="42"/>
+      <c r="C553" s="40"/>
     </row>
     <row r="554" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C554" s="42"/>
+      <c r="C554" s="40"/>
     </row>
     <row r="555" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C555" s="42"/>
+      <c r="C555" s="40"/>
     </row>
     <row r="556" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C556" s="42"/>
+      <c r="C556" s="40"/>
     </row>
     <row r="557" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C557" s="42"/>
+      <c r="C557" s="40"/>
     </row>
     <row r="558" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C558" s="42"/>
+      <c r="C558" s="40"/>
     </row>
     <row r="559" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C559" s="42"/>
+      <c r="C559" s="40"/>
     </row>
     <row r="560" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C560" s="42"/>
+      <c r="C560" s="40"/>
     </row>
     <row r="561" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C561" s="42"/>
+      <c r="C561" s="40"/>
     </row>
     <row r="562" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C562" s="42"/>
+      <c r="C562" s="40"/>
     </row>
     <row r="563" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C563" s="42"/>
+      <c r="C563" s="40"/>
     </row>
     <row r="564" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C564" s="42"/>
+      <c r="C564" s="40"/>
     </row>
     <row r="565" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C565" s="42"/>
+      <c r="C565" s="40"/>
     </row>
     <row r="566" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C566" s="42"/>
+      <c r="C566" s="40"/>
     </row>
     <row r="567" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C567" s="42"/>
+      <c r="C567" s="40"/>
     </row>
     <row r="568" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C568" s="42"/>
+      <c r="C568" s="40"/>
     </row>
     <row r="569" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C569" s="42"/>
+      <c r="C569" s="40"/>
     </row>
     <row r="570" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C570" s="42"/>
+      <c r="C570" s="40"/>
     </row>
     <row r="571" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C571" s="42"/>
+      <c r="C571" s="40"/>
     </row>
     <row r="572" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C572" s="42"/>
+      <c r="C572" s="40"/>
     </row>
     <row r="573" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C573" s="42"/>
+      <c r="C573" s="40"/>
     </row>
     <row r="574" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C574" s="42"/>
+      <c r="C574" s="40"/>
     </row>
     <row r="575" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C575" s="42"/>
+      <c r="C575" s="40"/>
     </row>
     <row r="576" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C576" s="42"/>
+      <c r="C576" s="40"/>
     </row>
     <row r="577" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C577" s="42"/>
+      <c r="C577" s="40"/>
     </row>
     <row r="578" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C578" s="42"/>
+      <c r="C578" s="40"/>
     </row>
     <row r="579" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C579" s="42"/>
+      <c r="C579" s="40"/>
     </row>
     <row r="580" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C580" s="42"/>
+      <c r="C580" s="40"/>
     </row>
     <row r="581" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C581" s="42"/>
+      <c r="C581" s="40"/>
     </row>
     <row r="582" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C582" s="42"/>
+      <c r="C582" s="40"/>
     </row>
     <row r="583" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C583" s="42"/>
+      <c r="C583" s="40"/>
     </row>
     <row r="584" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C584" s="42"/>
+      <c r="C584" s="40"/>
     </row>
     <row r="585" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C585" s="42"/>
+      <c r="C585" s="40"/>
     </row>
     <row r="586" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C586" s="42"/>
+      <c r="C586" s="40"/>
     </row>
     <row r="587" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C587" s="42"/>
+      <c r="C587" s="40"/>
     </row>
     <row r="588" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C588" s="42"/>
+      <c r="C588" s="40"/>
     </row>
     <row r="589" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C589" s="42"/>
+      <c r="C589" s="40"/>
     </row>
     <row r="590" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C590" s="42"/>
+      <c r="C590" s="40"/>
     </row>
     <row r="591" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C591" s="42"/>
+      <c r="C591" s="40"/>
     </row>
     <row r="592" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C592" s="42"/>
+      <c r="C592" s="40"/>
     </row>
     <row r="593" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C593" s="42"/>
+      <c r="C593" s="40"/>
     </row>
     <row r="594" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C594" s="42"/>
+      <c r="C594" s="40"/>
     </row>
     <row r="595" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C595" s="42"/>
+      <c r="C595" s="40"/>
     </row>
     <row r="596" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C596" s="42"/>
+      <c r="C596" s="40"/>
     </row>
     <row r="597" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C597" s="42"/>
+      <c r="C597" s="40"/>
     </row>
     <row r="598" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C598" s="42"/>
+      <c r="C598" s="40"/>
     </row>
     <row r="599" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C599" s="42"/>
+      <c r="C599" s="40"/>
     </row>
     <row r="600" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C600" s="42"/>
+      <c r="C600" s="40"/>
     </row>
     <row r="601" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C601" s="42"/>
+      <c r="C601" s="40"/>
     </row>
     <row r="602" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C602" s="42"/>
+      <c r="C602" s="40"/>
     </row>
     <row r="603" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C603" s="42"/>
+      <c r="C603" s="40"/>
     </row>
     <row r="604" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C604" s="42"/>
+      <c r="C604" s="40"/>
     </row>
     <row r="605" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C605" s="42"/>
+      <c r="C605" s="40"/>
     </row>
     <row r="606" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C606" s="42"/>
+      <c r="C606" s="40"/>
     </row>
     <row r="607" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C607" s="42"/>
+      <c r="C607" s="40"/>
     </row>
     <row r="608" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C608" s="42"/>
+      <c r="C608" s="40"/>
     </row>
     <row r="609" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C609" s="42"/>
+      <c r="C609" s="40"/>
     </row>
     <row r="610" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C610" s="42"/>
+      <c r="C610" s="40"/>
     </row>
     <row r="611" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C611" s="42"/>
+      <c r="C611" s="40"/>
     </row>
     <row r="612" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C612" s="42"/>
+      <c r="C612" s="40"/>
     </row>
     <row r="613" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C613" s="42"/>
+      <c r="C613" s="40"/>
     </row>
     <row r="614" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C614" s="42"/>
+      <c r="C614" s="40"/>
     </row>
     <row r="615" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C615" s="42"/>
+      <c r="C615" s="40"/>
     </row>
     <row r="616" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C616" s="42"/>
+      <c r="C616" s="40"/>
     </row>
     <row r="617" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C617" s="42"/>
+      <c r="C617" s="40"/>
     </row>
     <row r="618" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C618" s="42"/>
+      <c r="C618" s="40"/>
     </row>
     <row r="619" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C619" s="42"/>
+      <c r="C619" s="40"/>
     </row>
     <row r="620" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C620" s="42"/>
+      <c r="C620" s="40"/>
     </row>
     <row r="621" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C621" s="42"/>
+      <c r="C621" s="40"/>
     </row>
     <row r="622" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C622" s="42"/>
+      <c r="C622" s="40"/>
     </row>
     <row r="623" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C623" s="42"/>
+      <c r="C623" s="40"/>
     </row>
     <row r="624" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C624" s="42"/>
+      <c r="C624" s="40"/>
     </row>
     <row r="625" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C625" s="42"/>
+      <c r="C625" s="40"/>
     </row>
     <row r="626" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C626" s="42"/>
+      <c r="C626" s="40"/>
     </row>
     <row r="627" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C627" s="42"/>
+      <c r="C627" s="40"/>
     </row>
     <row r="628" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C628" s="42"/>
+      <c r="C628" s="40"/>
     </row>
     <row r="629" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C629" s="42"/>
+      <c r="C629" s="40"/>
     </row>
     <row r="630" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C630" s="42"/>
+      <c r="C630" s="40"/>
     </row>
     <row r="631" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C631" s="42"/>
+      <c r="C631" s="40"/>
     </row>
     <row r="632" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C632" s="42"/>
+      <c r="C632" s="40"/>
     </row>
     <row r="633" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C633" s="42"/>
+      <c r="C633" s="40"/>
     </row>
     <row r="634" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C634" s="42"/>
+      <c r="C634" s="40"/>
     </row>
     <row r="635" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C635" s="42"/>
+      <c r="C635" s="40"/>
     </row>
     <row r="636" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C636" s="42"/>
+      <c r="C636" s="40"/>
     </row>
     <row r="637" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C637" s="42"/>
+      <c r="C637" s="40"/>
     </row>
     <row r="638" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C638" s="42"/>
+      <c r="C638" s="40"/>
     </row>
     <row r="639" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C639" s="42"/>
+      <c r="C639" s="40"/>
     </row>
     <row r="640" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C640" s="42"/>
+      <c r="C640" s="40"/>
     </row>
     <row r="641" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C641" s="42"/>
+      <c r="C641" s="40"/>
     </row>
     <row r="642" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C642" s="42"/>
+      <c r="C642" s="40"/>
     </row>
     <row r="643" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C643" s="42"/>
+      <c r="C643" s="40"/>
     </row>
     <row r="644" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C644" s="42"/>
+      <c r="C644" s="40"/>
     </row>
     <row r="645" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C645" s="42"/>
+      <c r="C645" s="40"/>
     </row>
     <row r="646" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C646" s="42"/>
+      <c r="C646" s="40"/>
     </row>
     <row r="647" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C647" s="42"/>
+      <c r="C647" s="40"/>
     </row>
     <row r="648" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C648" s="42"/>
+      <c r="C648" s="40"/>
     </row>
     <row r="649" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C649" s="42"/>
+      <c r="C649" s="40"/>
     </row>
     <row r="650" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C650" s="42"/>
+      <c r="C650" s="40"/>
     </row>
     <row r="651" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C651" s="42"/>
+      <c r="C651" s="40"/>
     </row>
     <row r="652" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C652" s="42"/>
+      <c r="C652" s="40"/>
     </row>
     <row r="653" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C653" s="42"/>
+      <c r="C653" s="40"/>
     </row>
     <row r="654" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C654" s="42"/>
+      <c r="C654" s="40"/>
     </row>
     <row r="655" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C655" s="42"/>
+      <c r="C655" s="40"/>
     </row>
     <row r="656" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C656" s="42"/>
+      <c r="C656" s="40"/>
     </row>
     <row r="657" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C657" s="42"/>
+      <c r="C657" s="40"/>
     </row>
     <row r="658" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C658" s="42"/>
+      <c r="C658" s="40"/>
     </row>
     <row r="659" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C659" s="42"/>
+      <c r="C659" s="40"/>
     </row>
     <row r="660" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C660" s="42"/>
+      <c r="C660" s="40"/>
     </row>
     <row r="661" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C661" s="42"/>
+      <c r="C661" s="40"/>
     </row>
     <row r="662" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C662" s="42"/>
+      <c r="C662" s="40"/>
     </row>
     <row r="663" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C663" s="42"/>
+      <c r="C663" s="40"/>
     </row>
     <row r="664" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C664" s="42"/>
+      <c r="C664" s="40"/>
     </row>
     <row r="665" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C665" s="42"/>
+      <c r="C665" s="40"/>
     </row>
     <row r="666" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C666" s="42"/>
+      <c r="C666" s="40"/>
     </row>
     <row r="667" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C667" s="42"/>
+      <c r="C667" s="40"/>
     </row>
     <row r="668" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C668" s="42"/>
+      <c r="C668" s="40"/>
     </row>
     <row r="669" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C669" s="42"/>
+      <c r="C669" s="40"/>
     </row>
     <row r="670" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C670" s="42"/>
+      <c r="C670" s="40"/>
     </row>
     <row r="671" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C671" s="42"/>
+      <c r="C671" s="40"/>
     </row>
     <row r="672" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C672" s="42"/>
+      <c r="C672" s="40"/>
     </row>
     <row r="673" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C673" s="42"/>
+      <c r="C673" s="40"/>
     </row>
     <row r="674" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C674" s="42"/>
+      <c r="C674" s="40"/>
     </row>
     <row r="675" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C675" s="42"/>
+      <c r="C675" s="40"/>
     </row>
     <row r="676" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C676" s="42"/>
+      <c r="C676" s="40"/>
     </row>
     <row r="677" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C677" s="42"/>
+      <c r="C677" s="40"/>
     </row>
     <row r="678" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C678" s="42"/>
+      <c r="C678" s="40"/>
     </row>
     <row r="679" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C679" s="42"/>
+      <c r="C679" s="40"/>
     </row>
     <row r="680" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C680" s="42"/>
+      <c r="C680" s="40"/>
     </row>
     <row r="681" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C681" s="42"/>
+      <c r="C681" s="40"/>
     </row>
     <row r="682" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C682" s="42"/>
+      <c r="C682" s="40"/>
     </row>
     <row r="683" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C683" s="42"/>
+      <c r="C683" s="40"/>
     </row>
     <row r="684" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C684" s="42"/>
+      <c r="C684" s="40"/>
     </row>
     <row r="685" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C685" s="42"/>
+      <c r="C685" s="40"/>
     </row>
     <row r="686" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C686" s="42"/>
+      <c r="C686" s="40"/>
     </row>
     <row r="687" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C687" s="42"/>
+      <c r="C687" s="40"/>
     </row>
     <row r="688" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C688" s="42"/>
+      <c r="C688" s="40"/>
     </row>
     <row r="689" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C689" s="42"/>
+      <c r="C689" s="40"/>
     </row>
     <row r="690" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C690" s="42"/>
+      <c r="C690" s="40"/>
     </row>
     <row r="691" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C691" s="42"/>
+      <c r="C691" s="40"/>
     </row>
     <row r="692" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C692" s="42"/>
+      <c r="C692" s="40"/>
     </row>
     <row r="693" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C693" s="42"/>
+      <c r="C693" s="40"/>
     </row>
     <row r="694" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C694" s="42"/>
+      <c r="C694" s="40"/>
     </row>
     <row r="695" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C695" s="42"/>
+      <c r="C695" s="40"/>
     </row>
     <row r="696" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C696" s="42"/>
+      <c r="C696" s="40"/>
     </row>
     <row r="697" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C697" s="42"/>
+      <c r="C697" s="40"/>
     </row>
     <row r="698" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C698" s="42"/>
+      <c r="C698" s="40"/>
     </row>
     <row r="699" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C699" s="42"/>
+      <c r="C699" s="40"/>
     </row>
     <row r="700" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C700" s="42"/>
+      <c r="C700" s="40"/>
     </row>
     <row r="701" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C701" s="42"/>
+      <c r="C701" s="40"/>
     </row>
     <row r="702" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C702" s="42"/>
+      <c r="C702" s="40"/>
     </row>
     <row r="703" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C703" s="42"/>
+      <c r="C703" s="40"/>
     </row>
     <row r="704" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C704" s="42"/>
+      <c r="C704" s="40"/>
     </row>
     <row r="705" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C705" s="42"/>
+      <c r="C705" s="40"/>
     </row>
     <row r="706" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C706" s="42"/>
+      <c r="C706" s="40"/>
     </row>
     <row r="707" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C707" s="42"/>
+      <c r="C707" s="40"/>
     </row>
     <row r="708" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C708" s="42"/>
+      <c r="C708" s="40"/>
     </row>
     <row r="709" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C709" s="42"/>
+      <c r="C709" s="40"/>
     </row>
     <row r="710" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C710" s="42"/>
+      <c r="C710" s="40"/>
     </row>
     <row r="711" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C711" s="42"/>
+      <c r="C711" s="40"/>
     </row>
     <row r="712" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C712" s="42"/>
+      <c r="C712" s="40"/>
     </row>
     <row r="713" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C713" s="42"/>
+      <c r="C713" s="40"/>
     </row>
     <row r="714" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C714" s="42"/>
+      <c r="C714" s="40"/>
     </row>
     <row r="715" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C715" s="42"/>
+      <c r="C715" s="40"/>
     </row>
     <row r="716" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C716" s="42"/>
+      <c r="C716" s="40"/>
     </row>
     <row r="717" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C717" s="42"/>
+      <c r="C717" s="40"/>
     </row>
     <row r="718" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C718" s="42"/>
+      <c r="C718" s="40"/>
     </row>
     <row r="719" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C719" s="42"/>
+      <c r="C719" s="40"/>
     </row>
     <row r="720" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C720" s="42"/>
+      <c r="C720" s="40"/>
     </row>
     <row r="721" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C721" s="42"/>
+      <c r="C721" s="40"/>
     </row>
     <row r="722" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C722" s="42"/>
+      <c r="C722" s="40"/>
     </row>
     <row r="723" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C723" s="42"/>
+      <c r="C723" s="40"/>
     </row>
     <row r="724" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C724" s="42"/>
+      <c r="C724" s="40"/>
     </row>
     <row r="725" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C725" s="42"/>
+      <c r="C725" s="40"/>
     </row>
     <row r="726" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C726" s="42"/>
+      <c r="C726" s="40"/>
     </row>
     <row r="727" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C727" s="42"/>
+      <c r="C727" s="40"/>
     </row>
     <row r="728" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C728" s="42"/>
+      <c r="C728" s="40"/>
     </row>
     <row r="729" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C729" s="42"/>
+      <c r="C729" s="40"/>
     </row>
     <row r="730" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C730" s="42"/>
+      <c r="C730" s="40"/>
     </row>
     <row r="731" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C731" s="42"/>
+      <c r="C731" s="40"/>
     </row>
     <row r="732" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C732" s="42"/>
+      <c r="C732" s="40"/>
     </row>
     <row r="733" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C733" s="42"/>
+      <c r="C733" s="40"/>
     </row>
     <row r="734" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C734" s="42"/>
+      <c r="C734" s="40"/>
     </row>
     <row r="735" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C735" s="42"/>
+      <c r="C735" s="40"/>
     </row>
     <row r="736" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C736" s="42"/>
+      <c r="C736" s="40"/>
     </row>
     <row r="737" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C737" s="42"/>
+      <c r="C737" s="40"/>
     </row>
     <row r="738" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C738" s="42"/>
+      <c r="C738" s="40"/>
     </row>
     <row r="739" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C739" s="42"/>
+      <c r="C739" s="40"/>
     </row>
     <row r="740" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C740" s="42"/>
+      <c r="C740" s="40"/>
     </row>
     <row r="741" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C741" s="42"/>
+      <c r="C741" s="40"/>
     </row>
     <row r="742" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C742" s="42"/>
+      <c r="C742" s="40"/>
     </row>
     <row r="743" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C743" s="42"/>
+      <c r="C743" s="40"/>
     </row>
     <row r="744" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C744" s="42"/>
+      <c r="C744" s="40"/>
     </row>
     <row r="745" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C745" s="42"/>
+      <c r="C745" s="40"/>
     </row>
     <row r="746" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C746" s="42"/>
+      <c r="C746" s="40"/>
     </row>
     <row r="747" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C747" s="42"/>
+      <c r="C747" s="40"/>
     </row>
     <row r="748" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C748" s="42"/>
+      <c r="C748" s="40"/>
     </row>
     <row r="749" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C749" s="42"/>
+      <c r="C749" s="40"/>
     </row>
     <row r="750" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C750" s="42"/>
+      <c r="C750" s="40"/>
     </row>
     <row r="751" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C751" s="42"/>
+      <c r="C751" s="40"/>
     </row>
     <row r="752" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C752" s="42"/>
+      <c r="C752" s="40"/>
     </row>
     <row r="753" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C753" s="42"/>
+      <c r="C753" s="40"/>
     </row>
     <row r="754" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C754" s="42"/>
+      <c r="C754" s="40"/>
     </row>
     <row r="755" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C755" s="42"/>
+      <c r="C755" s="40"/>
     </row>
     <row r="756" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C756" s="42"/>
+      <c r="C756" s="40"/>
     </row>
     <row r="757" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C757" s="42"/>
+      <c r="C757" s="40"/>
     </row>
     <row r="758" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C758" s="42"/>
+      <c r="C758" s="40"/>
     </row>
     <row r="759" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C759" s="42"/>
+      <c r="C759" s="40"/>
     </row>
     <row r="760" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C760" s="42"/>
+      <c r="C760" s="40"/>
     </row>
     <row r="761" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C761" s="42"/>
+      <c r="C761" s="40"/>
     </row>
     <row r="762" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C762" s="42"/>
+      <c r="C762" s="40"/>
     </row>
     <row r="763" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C763" s="42"/>
+      <c r="C763" s="40"/>
     </row>
     <row r="764" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C764" s="42"/>
+      <c r="C764" s="40"/>
     </row>
     <row r="765" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C765" s="42"/>
+      <c r="C765" s="40"/>
     </row>
     <row r="766" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C766" s="42"/>
+      <c r="C766" s="40"/>
     </row>
     <row r="767" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C767" s="42"/>
+      <c r="C767" s="40"/>
     </row>
     <row r="768" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C768" s="42"/>
+      <c r="C768" s="40"/>
     </row>
     <row r="769" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C769" s="42"/>
+      <c r="C769" s="40"/>
     </row>
     <row r="770" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C770" s="42"/>
+      <c r="C770" s="40"/>
     </row>
     <row r="771" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C771" s="42"/>
+      <c r="C771" s="40"/>
     </row>
     <row r="772" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C772" s="42"/>
+      <c r="C772" s="40"/>
     </row>
     <row r="773" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C773" s="42"/>
+      <c r="C773" s="40"/>
     </row>
     <row r="774" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C774" s="42"/>
+      <c r="C774" s="40"/>
     </row>
     <row r="775" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C775" s="42"/>
+      <c r="C775" s="40"/>
     </row>
     <row r="776" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C776" s="42"/>
+      <c r="C776" s="40"/>
     </row>
     <row r="777" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C777" s="42"/>
+      <c r="C777" s="40"/>
     </row>
     <row r="778" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C778" s="42"/>
+      <c r="C778" s="40"/>
     </row>
     <row r="779" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C779" s="42"/>
+      <c r="C779" s="40"/>
     </row>
     <row r="780" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C780" s="42"/>
+      <c r="C780" s="40"/>
     </row>
     <row r="781" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C781" s="42"/>
+      <c r="C781" s="40"/>
     </row>
     <row r="782" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C782" s="42"/>
+      <c r="C782" s="40"/>
     </row>
     <row r="783" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C783" s="42"/>
+      <c r="C783" s="40"/>
     </row>
     <row r="784" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C784" s="42"/>
+      <c r="C784" s="40"/>
     </row>
     <row r="785" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C785" s="42"/>
+      <c r="C785" s="40"/>
     </row>
     <row r="786" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C786" s="42"/>
+      <c r="C786" s="40"/>
     </row>
     <row r="787" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C787" s="42"/>
+      <c r="C787" s="40"/>
     </row>
     <row r="788" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C788" s="42"/>
+      <c r="C788" s="40"/>
     </row>
     <row r="789" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C789" s="42"/>
+      <c r="C789" s="40"/>
     </row>
     <row r="790" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C790" s="42"/>
+      <c r="C790" s="40"/>
     </row>
     <row r="791" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C791" s="42"/>
+      <c r="C791" s="40"/>
     </row>
     <row r="792" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C792" s="42"/>
+      <c r="C792" s="40"/>
     </row>
     <row r="793" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C793" s="42"/>
+      <c r="C793" s="40"/>
     </row>
     <row r="794" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C794" s="42"/>
+      <c r="C794" s="40"/>
     </row>
     <row r="795" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C795" s="42"/>
+      <c r="C795" s="40"/>
     </row>
     <row r="796" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C796" s="42"/>
+      <c r="C796" s="40"/>
     </row>
     <row r="797" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C797" s="42"/>
+      <c r="C797" s="40"/>
     </row>
     <row r="798" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C798" s="42"/>
+      <c r="C798" s="40"/>
     </row>
     <row r="799" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C799" s="42"/>
+      <c r="C799" s="40"/>
     </row>
     <row r="800" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C800" s="42"/>
+      <c r="C800" s="40"/>
     </row>
     <row r="801" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C801" s="42"/>
+      <c r="C801" s="40"/>
     </row>
     <row r="802" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C802" s="42"/>
+      <c r="C802" s="40"/>
     </row>
     <row r="803" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C803" s="42"/>
+      <c r="C803" s="40"/>
     </row>
     <row r="804" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C804" s="42"/>
+      <c r="C804" s="40"/>
     </row>
     <row r="805" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C805" s="42"/>
+      <c r="C805" s="40"/>
     </row>
     <row r="806" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C806" s="42"/>
+      <c r="C806" s="40"/>
     </row>
     <row r="807" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C807" s="42"/>
+      <c r="C807" s="40"/>
     </row>
     <row r="808" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C808" s="42"/>
+      <c r="C808" s="40"/>
     </row>
     <row r="809" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C809" s="42"/>
+      <c r="C809" s="40"/>
     </row>
     <row r="810" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C810" s="42"/>
+      <c r="C810" s="40"/>
     </row>
     <row r="811" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C811" s="42"/>
+      <c r="C811" s="40"/>
     </row>
     <row r="812" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C812" s="42"/>
+      <c r="C812" s="40"/>
     </row>
     <row r="813" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C813" s="42"/>
+      <c r="C813" s="40"/>
     </row>
     <row r="814" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C814" s="42"/>
+      <c r="C814" s="40"/>
     </row>
     <row r="815" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C815" s="42"/>
+      <c r="C815" s="40"/>
     </row>
     <row r="816" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C816" s="42"/>
+      <c r="C816" s="40"/>
     </row>
     <row r="817" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C817" s="42"/>
+      <c r="C817" s="40"/>
     </row>
     <row r="818" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C818" s="42"/>
+      <c r="C818" s="40"/>
     </row>
     <row r="819" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C819" s="42"/>
+      <c r="C819" s="40"/>
     </row>
     <row r="820" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C820" s="42"/>
+      <c r="C820" s="40"/>
     </row>
     <row r="821" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C821" s="42"/>
+      <c r="C821" s="40"/>
     </row>
     <row r="822" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C822" s="42"/>
+      <c r="C822" s="40"/>
     </row>
     <row r="823" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C823" s="42"/>
+      <c r="C823" s="40"/>
     </row>
     <row r="824" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C824" s="42"/>
+      <c r="C824" s="40"/>
     </row>
     <row r="825" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C825" s="42"/>
+      <c r="C825" s="40"/>
     </row>
     <row r="826" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C826" s="42"/>
+      <c r="C826" s="40"/>
     </row>
     <row r="827" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C827" s="42"/>
+      <c r="C827" s="40"/>
     </row>
     <row r="828" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C828" s="42"/>
+      <c r="C828" s="40"/>
     </row>
     <row r="829" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C829" s="42"/>
+      <c r="C829" s="40"/>
     </row>
     <row r="830" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C830" s="42"/>
+      <c r="C830" s="40"/>
     </row>
     <row r="831" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C831" s="42"/>
+      <c r="C831" s="40"/>
     </row>
     <row r="832" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C832" s="42"/>
+      <c r="C832" s="40"/>
     </row>
     <row r="833" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C833" s="42"/>
+      <c r="C833" s="40"/>
     </row>
     <row r="834" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C834" s="42"/>
+      <c r="C834" s="40"/>
     </row>
     <row r="835" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C835" s="42"/>
+      <c r="C835" s="40"/>
     </row>
     <row r="836" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C836" s="42"/>
+      <c r="C836" s="40"/>
     </row>
     <row r="837" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C837" s="42"/>
+      <c r="C837" s="40"/>
     </row>
     <row r="838" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C838" s="42"/>
+      <c r="C838" s="40"/>
     </row>
     <row r="839" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C839" s="42"/>
+      <c r="C839" s="40"/>
     </row>
     <row r="840" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C840" s="42"/>
+      <c r="C840" s="40"/>
     </row>
     <row r="841" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C841" s="42"/>
+      <c r="C841" s="40"/>
     </row>
     <row r="842" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C842" s="42"/>
+      <c r="C842" s="40"/>
     </row>
     <row r="843" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C843" s="42"/>
+      <c r="C843" s="40"/>
     </row>
     <row r="844" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C844" s="42"/>
+      <c r="C844" s="40"/>
     </row>
     <row r="845" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C845" s="42"/>
+      <c r="C845" s="40"/>
     </row>
     <row r="846" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C846" s="42"/>
+      <c r="C846" s="40"/>
     </row>
     <row r="847" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C847" s="42"/>
+      <c r="C847" s="40"/>
     </row>
     <row r="848" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C848" s="42"/>
+      <c r="C848" s="40"/>
     </row>
     <row r="849" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C849" s="42"/>
+      <c r="C849" s="40"/>
     </row>
     <row r="850" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C850" s="42"/>
+      <c r="C850" s="40"/>
     </row>
     <row r="851" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C851" s="42"/>
+      <c r="C851" s="40"/>
     </row>
     <row r="852" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C852" s="42"/>
+      <c r="C852" s="40"/>
     </row>
     <row r="853" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C853" s="42"/>
+      <c r="C853" s="40"/>
     </row>
     <row r="854" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C854" s="42"/>
+      <c r="C854" s="40"/>
     </row>
     <row r="855" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C855" s="42"/>
+      <c r="C855" s="40"/>
     </row>
     <row r="856" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C856" s="42"/>
+      <c r="C856" s="40"/>
     </row>
     <row r="857" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C857" s="42"/>
+      <c r="C857" s="40"/>
     </row>
     <row r="858" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C858" s="42"/>
+      <c r="C858" s="40"/>
     </row>
     <row r="859" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C859" s="42"/>
+      <c r="C859" s="40"/>
     </row>
     <row r="860" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C860" s="42"/>
+      <c r="C860" s="40"/>
     </row>
     <row r="861" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C861" s="42"/>
+      <c r="C861" s="40"/>
     </row>
     <row r="862" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C862" s="42"/>
+      <c r="C862" s="40"/>
     </row>
     <row r="863" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C863" s="42"/>
+      <c r="C863" s="40"/>
     </row>
     <row r="864" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C864" s="42"/>
+      <c r="C864" s="40"/>
     </row>
     <row r="865" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C865" s="42"/>
+      <c r="C865" s="40"/>
     </row>
     <row r="866" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C866" s="42"/>
+      <c r="C866" s="40"/>
     </row>
     <row r="867" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C867" s="42"/>
+      <c r="C867" s="40"/>
     </row>
     <row r="868" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C868" s="42"/>
+      <c r="C868" s="40"/>
     </row>
     <row r="869" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C869" s="42"/>
+      <c r="C869" s="40"/>
     </row>
     <row r="870" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C870" s="42"/>
+      <c r="C870" s="40"/>
     </row>
     <row r="871" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C871" s="42"/>
+      <c r="C871" s="40"/>
     </row>
     <row r="872" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C872" s="42"/>
+      <c r="C872" s="40"/>
     </row>
     <row r="873" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C873" s="42"/>
+      <c r="C873" s="40"/>
     </row>
     <row r="874" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C874" s="42"/>
+      <c r="C874" s="40"/>
     </row>
     <row r="875" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C875" s="42"/>
+      <c r="C875" s="40"/>
     </row>
     <row r="876" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C876" s="42"/>
+      <c r="C876" s="40"/>
     </row>
     <row r="877" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C877" s="42"/>
+      <c r="C877" s="40"/>
     </row>
     <row r="878" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C878" s="42"/>
+      <c r="C878" s="40"/>
     </row>
     <row r="879" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C879" s="42"/>
+      <c r="C879" s="40"/>
     </row>
     <row r="880" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C880" s="42"/>
+      <c r="C880" s="40"/>
     </row>
     <row r="881" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C881" s="42"/>
+      <c r="C881" s="40"/>
     </row>
     <row r="882" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C882" s="42"/>
+      <c r="C882" s="40"/>
     </row>
     <row r="883" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C883" s="42"/>
+      <c r="C883" s="40"/>
     </row>
     <row r="884" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C884" s="42"/>
+      <c r="C884" s="40"/>
     </row>
     <row r="885" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C885" s="42"/>
+      <c r="C885" s="40"/>
     </row>
     <row r="886" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C886" s="42"/>
+      <c r="C886" s="40"/>
     </row>
     <row r="887" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C887" s="42"/>
+      <c r="C887" s="40"/>
     </row>
     <row r="888" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C888" s="42"/>
+      <c r="C888" s="40"/>
     </row>
     <row r="889" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C889" s="42"/>
+      <c r="C889" s="40"/>
     </row>
     <row r="890" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C890" s="42"/>
+      <c r="C890" s="40"/>
     </row>
     <row r="891" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C891" s="42"/>
+      <c r="C891" s="40"/>
     </row>
     <row r="892" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C892" s="42"/>
+      <c r="C892" s="40"/>
     </row>
     <row r="893" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C893" s="42"/>
+      <c r="C893" s="40"/>
     </row>
     <row r="894" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C894" s="42"/>
+      <c r="C894" s="40"/>
     </row>
     <row r="895" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C895" s="42"/>
+      <c r="C895" s="40"/>
     </row>
     <row r="896" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C896" s="42"/>
+      <c r="C896" s="40"/>
     </row>
     <row r="897" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C897" s="42"/>
+      <c r="C897" s="40"/>
     </row>
     <row r="898" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C898" s="42"/>
+      <c r="C898" s="40"/>
     </row>
     <row r="899" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C899" s="42"/>
+      <c r="C899" s="40"/>
     </row>
     <row r="900" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C900" s="42"/>
+      <c r="C900" s="40"/>
     </row>
     <row r="901" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C901" s="42"/>
+      <c r="C901" s="40"/>
     </row>
     <row r="902" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C902" s="42"/>
+      <c r="C902" s="40"/>
     </row>
     <row r="903" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C903" s="42"/>
+      <c r="C903" s="40"/>
     </row>
     <row r="904" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C904" s="42"/>
+      <c r="C904" s="40"/>
     </row>
     <row r="905" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C905" s="42"/>
+      <c r="C905" s="40"/>
     </row>
     <row r="906" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C906" s="42"/>
+      <c r="C906" s="40"/>
     </row>
     <row r="907" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C907" s="42"/>
+      <c r="C907" s="40"/>
     </row>
     <row r="908" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C908" s="42"/>
+      <c r="C908" s="40"/>
     </row>
     <row r="909" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C909" s="42"/>
+      <c r="C909" s="40"/>
     </row>
     <row r="910" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C910" s="42"/>
+      <c r="C910" s="40"/>
     </row>
     <row r="911" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C911" s="42"/>
+      <c r="C911" s="40"/>
     </row>
     <row r="912" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C912" s="42"/>
+      <c r="C912" s="40"/>
     </row>
     <row r="913" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C913" s="42"/>
+      <c r="C913" s="40"/>
     </row>
     <row r="914" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C914" s="42"/>
+      <c r="C914" s="40"/>
     </row>
     <row r="915" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C915" s="42"/>
+      <c r="C915" s="40"/>
     </row>
     <row r="916" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C916" s="42"/>
+      <c r="C916" s="40"/>
     </row>
     <row r="917" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C917" s="42"/>
+      <c r="C917" s="40"/>
     </row>
     <row r="918" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C918" s="42"/>
+      <c r="C918" s="40"/>
     </row>
     <row r="919" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C919" s="42"/>
+      <c r="C919" s="40"/>
     </row>
     <row r="920" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C920" s="42"/>
+      <c r="C920" s="40"/>
     </row>
     <row r="921" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C921" s="42"/>
+      <c r="C921" s="40"/>
     </row>
     <row r="922" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C922" s="42"/>
+      <c r="C922" s="40"/>
     </row>
     <row r="923" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C923" s="42"/>
+      <c r="C923" s="40"/>
     </row>
     <row r="924" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C924" s="42"/>
+      <c r="C924" s="40"/>
     </row>
     <row r="925" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C925" s="42"/>
+      <c r="C925" s="40"/>
     </row>
     <row r="926" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C926" s="42"/>
+      <c r="C926" s="40"/>
     </row>
     <row r="927" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C927" s="42"/>
+      <c r="C927" s="40"/>
     </row>
     <row r="928" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C928" s="42"/>
+      <c r="C928" s="40"/>
     </row>
     <row r="929" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C929" s="42"/>
+      <c r="C929" s="40"/>
     </row>
     <row r="930" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C930" s="42"/>
+      <c r="C930" s="40"/>
     </row>
     <row r="931" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C931" s="42"/>
+      <c r="C931" s="40"/>
     </row>
     <row r="932" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C932" s="42"/>
+      <c r="C932" s="40"/>
     </row>
     <row r="933" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C933" s="42"/>
+      <c r="C933" s="40"/>
     </row>
     <row r="934" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C934" s="42"/>
+      <c r="C934" s="40"/>
     </row>
     <row r="935" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C935" s="42"/>
+      <c r="C935" s="40"/>
     </row>
     <row r="936" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C936" s="42"/>
+      <c r="C936" s="40"/>
     </row>
     <row r="937" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C937" s="42"/>
+      <c r="C937" s="40"/>
     </row>
     <row r="938" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C938" s="42"/>
+      <c r="C938" s="40"/>
     </row>
     <row r="939" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C939" s="42"/>
+      <c r="C939" s="40"/>
     </row>
     <row r="940" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C940" s="42"/>
+      <c r="C940" s="40"/>
     </row>
     <row r="941" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C941" s="42"/>
+      <c r="C941" s="40"/>
     </row>
     <row r="942" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C942" s="42"/>
+      <c r="C942" s="40"/>
     </row>
     <row r="943" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C943" s="42"/>
+      <c r="C943" s="40"/>
     </row>
     <row r="944" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C944" s="42"/>
+      <c r="C944" s="40"/>
     </row>
   </sheetData>
-  <mergeCells count="170">
-    <mergeCell ref="B197:B200"/>
-    <mergeCell ref="B244:B247"/>
-    <mergeCell ref="A248:A250"/>
-    <mergeCell ref="B248:B250"/>
-    <mergeCell ref="A251:A253"/>
-    <mergeCell ref="B251:B253"/>
-    <mergeCell ref="B254:B258"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="A33:A36"/>
-    <mergeCell ref="A238:A241"/>
-    <mergeCell ref="B238:B241"/>
-    <mergeCell ref="A325:A327"/>
-    <mergeCell ref="B325:B327"/>
-    <mergeCell ref="A312:A315"/>
-    <mergeCell ref="A316:A318"/>
-    <mergeCell ref="A319:A321"/>
-    <mergeCell ref="B322:B324"/>
-    <mergeCell ref="A328:B328"/>
-    <mergeCell ref="A285:A287"/>
-    <mergeCell ref="A288:A291"/>
-    <mergeCell ref="A297:A301"/>
-    <mergeCell ref="B297:B301"/>
-    <mergeCell ref="B288:B291"/>
-    <mergeCell ref="B308:B311"/>
-    <mergeCell ref="B312:B315"/>
-    <mergeCell ref="B316:B318"/>
-    <mergeCell ref="A302:A304"/>
-    <mergeCell ref="A305:A307"/>
-    <mergeCell ref="A308:A311"/>
-    <mergeCell ref="B305:B307"/>
-    <mergeCell ref="B302:B304"/>
-    <mergeCell ref="A322:A324"/>
-    <mergeCell ref="B319:B321"/>
-    <mergeCell ref="A201:A204"/>
-    <mergeCell ref="B201:B204"/>
-    <mergeCell ref="A217:A220"/>
-    <mergeCell ref="B217:B220"/>
-    <mergeCell ref="B230:B233"/>
-    <mergeCell ref="B226:B229"/>
-    <mergeCell ref="A230:A233"/>
-    <mergeCell ref="A226:A229"/>
-    <mergeCell ref="A234:A237"/>
-    <mergeCell ref="B234:B237"/>
-    <mergeCell ref="A205:A208"/>
+  <mergeCells count="171">
+    <mergeCell ref="A328:A330"/>
+    <mergeCell ref="B328:B330"/>
+    <mergeCell ref="A129:A132"/>
+    <mergeCell ref="A105:A108"/>
+    <mergeCell ref="A109:A113"/>
+    <mergeCell ref="A114:A119"/>
+    <mergeCell ref="A120:A123"/>
+    <mergeCell ref="A71:A74"/>
+    <mergeCell ref="A80:A84"/>
+    <mergeCell ref="A85:A89"/>
+    <mergeCell ref="A95:A99"/>
+    <mergeCell ref="A100:A104"/>
+    <mergeCell ref="A124:A128"/>
+    <mergeCell ref="A178:A180"/>
+    <mergeCell ref="B178:B180"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A63:A66"/>
+    <mergeCell ref="A67:A70"/>
+    <mergeCell ref="B67:B70"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="B58:B62"/>
+    <mergeCell ref="A48:A52"/>
+    <mergeCell ref="A53:A57"/>
+    <mergeCell ref="A58:A62"/>
+    <mergeCell ref="A75:A78"/>
+    <mergeCell ref="A90:A94"/>
+    <mergeCell ref="B120:B123"/>
+    <mergeCell ref="B124:B128"/>
+    <mergeCell ref="B137:B140"/>
+    <mergeCell ref="B133:B136"/>
+    <mergeCell ref="B141:B144"/>
+    <mergeCell ref="B75:B78"/>
+    <mergeCell ref="A133:A136"/>
+    <mergeCell ref="A137:A140"/>
+    <mergeCell ref="A193:A196"/>
+    <mergeCell ref="B193:B196"/>
+    <mergeCell ref="A181:A184"/>
+    <mergeCell ref="A189:A192"/>
+    <mergeCell ref="B189:B192"/>
+    <mergeCell ref="B181:B184"/>
+    <mergeCell ref="A185:A188"/>
+    <mergeCell ref="B185:B188"/>
+    <mergeCell ref="A149:A152"/>
+    <mergeCell ref="B149:B152"/>
+    <mergeCell ref="B167:B171"/>
+    <mergeCell ref="A167:A171"/>
+    <mergeCell ref="A172:A174"/>
+    <mergeCell ref="B172:B174"/>
+    <mergeCell ref="B175:B177"/>
+    <mergeCell ref="A175:A177"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B105:B108"/>
+    <mergeCell ref="B109:B113"/>
+    <mergeCell ref="B114:B119"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="B33:B36"/>
+    <mergeCell ref="B48:B52"/>
+    <mergeCell ref="B53:B57"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B44:B47"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="B281:B284"/>
+    <mergeCell ref="B285:B287"/>
+    <mergeCell ref="B264:B265"/>
+    <mergeCell ref="A264:A265"/>
+    <mergeCell ref="B71:B74"/>
+    <mergeCell ref="B63:B66"/>
+    <mergeCell ref="A153:A156"/>
+    <mergeCell ref="A160:A163"/>
+    <mergeCell ref="B160:B163"/>
+    <mergeCell ref="B153:B156"/>
+    <mergeCell ref="A157:A159"/>
+    <mergeCell ref="B157:B159"/>
+    <mergeCell ref="A164:A166"/>
+    <mergeCell ref="B164:B166"/>
+    <mergeCell ref="B90:B94"/>
+    <mergeCell ref="B80:B84"/>
+    <mergeCell ref="B85:B89"/>
+    <mergeCell ref="B100:B104"/>
+    <mergeCell ref="B95:B99"/>
+    <mergeCell ref="B129:B132"/>
+    <mergeCell ref="A141:A144"/>
+    <mergeCell ref="A145:A148"/>
+    <mergeCell ref="B145:B148"/>
+    <mergeCell ref="A197:A200"/>
     <mergeCell ref="B205:B208"/>
     <mergeCell ref="A209:A212"/>
     <mergeCell ref="B209:B212"/>
@@ -14078,107 +14293,53 @@
     <mergeCell ref="A254:A258"/>
     <mergeCell ref="A278:A280"/>
     <mergeCell ref="A281:A284"/>
-    <mergeCell ref="B281:B284"/>
-    <mergeCell ref="B285:B287"/>
-    <mergeCell ref="B264:B265"/>
-    <mergeCell ref="A264:A265"/>
-    <mergeCell ref="B71:B74"/>
-    <mergeCell ref="B63:B66"/>
-    <mergeCell ref="A153:A156"/>
-    <mergeCell ref="A160:A163"/>
-    <mergeCell ref="B160:B163"/>
-    <mergeCell ref="B153:B156"/>
-    <mergeCell ref="A157:A159"/>
-    <mergeCell ref="B157:B159"/>
-    <mergeCell ref="A164:A166"/>
-    <mergeCell ref="B164:B166"/>
-    <mergeCell ref="B90:B94"/>
-    <mergeCell ref="B80:B84"/>
-    <mergeCell ref="B85:B89"/>
-    <mergeCell ref="B100:B104"/>
-    <mergeCell ref="B95:B99"/>
-    <mergeCell ref="B129:B132"/>
-    <mergeCell ref="A141:A144"/>
-    <mergeCell ref="A145:A148"/>
-    <mergeCell ref="B145:B148"/>
-    <mergeCell ref="A197:A200"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B105:B108"/>
-    <mergeCell ref="B109:B113"/>
-    <mergeCell ref="B114:B119"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="B33:B36"/>
-    <mergeCell ref="B48:B52"/>
-    <mergeCell ref="B53:B57"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="B44:B47"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="B120:B123"/>
-    <mergeCell ref="B124:B128"/>
-    <mergeCell ref="B137:B140"/>
-    <mergeCell ref="B133:B136"/>
-    <mergeCell ref="B141:B144"/>
-    <mergeCell ref="B75:B78"/>
-    <mergeCell ref="A133:A136"/>
-    <mergeCell ref="A137:A140"/>
-    <mergeCell ref="A193:A196"/>
-    <mergeCell ref="B193:B196"/>
-    <mergeCell ref="A181:A184"/>
-    <mergeCell ref="A189:A192"/>
-    <mergeCell ref="B189:B192"/>
-    <mergeCell ref="B181:B184"/>
-    <mergeCell ref="A185:A188"/>
-    <mergeCell ref="B185:B188"/>
-    <mergeCell ref="A149:A152"/>
-    <mergeCell ref="B149:B152"/>
-    <mergeCell ref="B167:B171"/>
-    <mergeCell ref="A167:A171"/>
-    <mergeCell ref="A172:A174"/>
-    <mergeCell ref="B172:B174"/>
-    <mergeCell ref="B175:B177"/>
-    <mergeCell ref="A175:A177"/>
-    <mergeCell ref="A178:A180"/>
-    <mergeCell ref="B178:B180"/>
-    <mergeCell ref="A5:A8"/>
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A63:A66"/>
-    <mergeCell ref="A67:A70"/>
-    <mergeCell ref="B67:B70"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="A44:A47"/>
-    <mergeCell ref="B58:B62"/>
-    <mergeCell ref="A48:A52"/>
-    <mergeCell ref="A53:A57"/>
-    <mergeCell ref="A58:A62"/>
-    <mergeCell ref="A75:A78"/>
-    <mergeCell ref="A90:A94"/>
-    <mergeCell ref="A129:A132"/>
-    <mergeCell ref="A105:A108"/>
-    <mergeCell ref="A109:A113"/>
-    <mergeCell ref="A114:A119"/>
-    <mergeCell ref="A120:A123"/>
-    <mergeCell ref="A71:A74"/>
-    <mergeCell ref="A80:A84"/>
-    <mergeCell ref="A85:A89"/>
-    <mergeCell ref="A95:A99"/>
-    <mergeCell ref="A100:A104"/>
-    <mergeCell ref="A124:A128"/>
+    <mergeCell ref="A325:A327"/>
+    <mergeCell ref="B325:B327"/>
+    <mergeCell ref="A312:A315"/>
+    <mergeCell ref="A316:A318"/>
+    <mergeCell ref="A319:A321"/>
+    <mergeCell ref="B322:B324"/>
+    <mergeCell ref="A285:A287"/>
+    <mergeCell ref="A288:A291"/>
+    <mergeCell ref="A297:A301"/>
+    <mergeCell ref="B297:B301"/>
+    <mergeCell ref="B288:B291"/>
+    <mergeCell ref="B308:B311"/>
+    <mergeCell ref="B312:B315"/>
+    <mergeCell ref="B316:B318"/>
+    <mergeCell ref="A302:A304"/>
+    <mergeCell ref="A305:A307"/>
+    <mergeCell ref="A308:A311"/>
+    <mergeCell ref="B305:B307"/>
+    <mergeCell ref="B302:B304"/>
+    <mergeCell ref="A322:A324"/>
+    <mergeCell ref="B319:B321"/>
+    <mergeCell ref="B197:B200"/>
+    <mergeCell ref="B244:B247"/>
+    <mergeCell ref="A248:A250"/>
+    <mergeCell ref="B248:B250"/>
+    <mergeCell ref="A251:A253"/>
+    <mergeCell ref="B251:B253"/>
+    <mergeCell ref="B254:B258"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="A33:A36"/>
+    <mergeCell ref="A238:A241"/>
+    <mergeCell ref="B238:B241"/>
+    <mergeCell ref="A201:A204"/>
+    <mergeCell ref="B201:B204"/>
+    <mergeCell ref="A217:A220"/>
+    <mergeCell ref="B217:B220"/>
+    <mergeCell ref="B230:B233"/>
+    <mergeCell ref="B226:B229"/>
+    <mergeCell ref="A230:A233"/>
+    <mergeCell ref="A226:A229"/>
+    <mergeCell ref="A234:A237"/>
+    <mergeCell ref="B234:B237"/>
+    <mergeCell ref="A205:A208"/>
   </mergeCells>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
